--- a/CQL_Execution_Features.xlsx
+++ b/CQL_Execution_Features.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmoesel/OneDrive - The MITRE Corporation/Documents/CDS_Connect/Task 2 Standards Conformance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmoesel/dev/cqframework/cql-execution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473199ED-9000-4640-86F6-00BADA405570}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CEBA97-3660-5947-8BF1-B2E8511B2C65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16920" yWindow="460" windowWidth="34280" windowHeight="26720" xr2:uid="{BD7176B9-F4D7-4641-8174-C94C0FC4637E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="820">
   <si>
     <t>Capability</t>
   </si>
@@ -2297,9 +2297,6 @@
     <t>* Implemented in logical.js (not nullological.js)</t>
   </si>
   <si>
-    <t>* Long not supported</t>
-  </si>
-  <si>
     <t>* Needs tests for standard use</t>
   </si>
   <si>
@@ -2309,41 +2306,13 @@
     <t>Arithmetic: MinValue</t>
   </si>
   <si>
-    <t>* Long not supported
-* Date/DateTime equality has new semantics
-* Needs tests for Decimal, String, Time, List, Interval, Null</t>
-  </si>
-  <si>
-    <t>* Long not supported
-* Needs tests for Date, DateTime, Time, Decimal, and Null</t>
-  </si>
-  <si>
-    <t>* Long not supported
-* Also needs tests for Date, Datetime, Time, Decimal, and Null</t>
-  </si>
-  <si>
-    <t>* Long not supported
-* Also needs tests for Date, DateTime, Time, Decimal, and Null</t>
-  </si>
-  <si>
-    <t>* Long not supported
-* Needs tests for Quantity and Null</t>
-  </si>
-  <si>
     <t>* Needs tests for Null</t>
   </si>
   <si>
-    <t>* Long not supported
-* Needs tests for Decimal, Quantity, Null, and Unrepresentable</t>
-  </si>
-  <si>
     <t>STU</t>
   </si>
   <si>
     <t>* Needs tests for Null and other precisions</t>
-  </si>
-  <si>
-    <t>* &amp; operator not supported</t>
   </si>
   <si>
     <t>* Implemented in comparison.js
@@ -2355,10 +2324,6 @@
 * Needs tests for Date and Time</t>
   </si>
   <si>
-    <t>* Timezone normalization may currently be too aggressive (should only be normalized when precision is h/m/s/ms)
-* Needs tests for Date and Time</t>
-  </si>
-  <si>
     <t>* Implemented in comparison.js
 * Needs tests for Date and Time</t>
   </si>
@@ -2369,320 +2334,190 @@
     <t>* Needs tests for Date and Time</t>
   </si>
   <si>
-    <t>* Long not supported
-* Timezone normalization may currently be too aggressive (should only be normalized when precision is h/m/s/ms)
+    <t>* Translated as SameOrAfter
+* Additional tests are probably not necessary</t>
+  </si>
+  <si>
+    <t>* Translated as SameOrBefore
+* Additional tests are probably not necessary</t>
+  </si>
+  <si>
+    <t>* Tests in comparison-tests.js
+* Needs tests for null (they're in CQL but not in the js)</t>
+  </si>
+  <si>
+    <t>* Translated as Not(Equivalent(a,b)) - so no extra implementation
+* Additional tests are probably not necessary</t>
+  </si>
+  <si>
+    <t>* Implementation supports Quantity type, but that's not in spec</t>
+  </si>
+  <si>
+    <t>* Needs tests for List with Null items (in test data but not in JS)</t>
+  </si>
+  <si>
+    <t>* Requires support from PatientSource</t>
+  </si>
+  <si>
+    <t>* Needs tests for List&lt;Code&gt;</t>
+  </si>
+  <si>
+    <t>* Boolean not supported</t>
+  </si>
+  <si>
+    <t>* Implemented in list.js</t>
+  </si>
+  <si>
+    <t>* Ratio not supported</t>
+  </si>
+  <si>
+    <t>* Needs tests for units other than years</t>
+  </si>
+  <si>
+    <t>* May require access to a terminology server</t>
+  </si>
+  <si>
+    <t>* Needs tests for Concept, List&lt;Concept&gt;, and List&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>* Implemented in nullological.js</t>
+  </si>
+  <si>
+    <t>* Implicitly tested in many tests</t>
+  </si>
+  <si>
+    <t>* Implicitly tested in many other tests</t>
+  </si>
+  <si>
+    <t>* Not supported as argument to function</t>
+  </si>
+  <si>
+    <t>* According to spec: Note that this operation should almost never be performed in practice. Code system references are allowed in order to allow for testing of code membership in a particular code system.</t>
+  </si>
+  <si>
+    <t>* Tested in instance-test.js</t>
+  </si>
+  <si>
+    <t>* CodeSystem property not supported</t>
+  </si>
+  <si>
+    <t>* Not supported w/ its own class, but extracted from Library</t>
+  </si>
+  <si>
+    <t>* Unclear if Practitioner context is actually part of the spec.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>* Retrieves not supported
+* References to expressions in other libraries not supported</t>
+  </si>
+  <si>
+    <t>* ParameterType property not supported (but may not be used)</t>
+  </si>
+  <si>
+    <t>External Data: Retrieve - contextProperty</t>
+  </si>
+  <si>
+    <t>Status Summary</t>
+  </si>
+  <si>
+    <t>GH Issue</t>
+  </si>
+  <si>
+    <t>156
+157</t>
+  </si>
+  <si>
+    <t>incorrect</t>
+  </si>
+  <si>
+    <t>199
+200</t>
+  </si>
+  <si>
+    <t>187
+201</t>
+  </si>
+  <si>
+    <t>202
+192</t>
+  </si>
+  <si>
+    <t>186
+177</t>
+  </si>
+  <si>
+    <t>* Needs tests for Quantity and Null</t>
+  </si>
+  <si>
+    <t>* Needs tests for null</t>
+  </si>
+  <si>
+    <t>* Semantics have changed for definite-duration vs calendar duration units
 * Needs tests for Date and Time</t>
   </si>
   <si>
-    <t>* Long not supported
-* Timezone normalization may currently be too aggressive (should only be normalized when precision is h/m/s/ms)
-* Need to compare implementation to behavior defined in specification (it's complicated)
+    <t>* Needs tests for List with Null items</t>
+  </si>
+  <si>
+    <t>* Needs tests for Decimal, String, Time, List, Interval, Null</t>
+  </si>
+  <si>
+    <t>* Needs tests for Date, DateTime, Time, Decimal, and Null</t>
+  </si>
+  <si>
+    <t>* Needs tests for Decimal and Time</t>
+  </si>
+  <si>
+    <t>* Needs tests for Date, Datetime, Time, Decimal, and Null</t>
+  </si>
+  <si>
+    <t>* Needs tests for Date</t>
+  </si>
+  <si>
+    <t>* Needs tests for Decimal, Quantity, and Null</t>
+  </si>
+  <si>
+    <t>* Needs tests for Decimal, Quantity, Null, and Unrepresentable</t>
+  </si>
+  <si>
+    <t>* Some issues w/ very large numbers
+* Needs tests for Decimal and Null</t>
+  </si>
+  <si>
+    <t>* Whole number decimals may be treated like integers
+* Needs tests for Quantity, Date, Time, and Null</t>
+  </si>
+  <si>
+    <t>* Need to compare implementation to behavior defined in specification (it's complicated)
 * Needs tests for Date and Time</t>
   </si>
   <si>
-    <t>* Long not supported
-* Needs tests for Date and Time</t>
-  </si>
-  <si>
     <t>* Implemented in overloaded.js
-* Long not supported
 * Needs tests for Decimal, Date, and Time</t>
   </si>
   <si>
     <t>* Implemented in overloaded.js
 * Tests in comparison-tests.js
-* Long not supported
 * Needs tests for Decimal, Date, and Time</t>
   </si>
   <si>
-    <t>* Long not supported
-* Needs tests for Decimal, Quantity, Date, and Time</t>
-  </si>
-  <si>
-    <t>* Translated as SameOrAfter
-* Additional tests are probably not necessary</t>
-  </si>
-  <si>
-    <t>* Translated as SameOrBefore
-* Additional tests are probably not necessary</t>
-  </si>
-  <si>
-    <t>* Long not supported
-* Timezone normalization may currently be too aggressive (should only be normalized when precision is h/m/s/ms)
-* Needs tests for Quantity, Date, and Time</t>
-  </si>
-  <si>
-    <t>* Long not supported
-* Timezone normalization may currently be too aggressive (should only be normalized when precision is h/m/s/ms)
-* Needs tests for Decimal, Quantity, Date, and Time</t>
-  </si>
-  <si>
-    <t>* Implementation incorrect when list is null</t>
-  </si>
-  <si>
-    <t>* Implementation incorrect when list has multiple nulls</t>
-  </si>
-  <si>
-    <t>* Tests in comparison-tests.js
-* Needs tests for null (they're in CQL but not in the js)</t>
-  </si>
-  <si>
-    <t>* Implementation incorrect when second list is null</t>
-  </si>
-  <si>
-    <t>* Long not supported
-* Implementation incorrect when second list is null</t>
-  </si>
-  <si>
-    <t>* Long not supported
-* Implementation incorrect when first list is null</t>
-  </si>
-  <si>
-    <t>* Implementation incorrect when lists contain null</t>
-  </si>
-  <si>
-    <t>* Translated as Not(Equivalent(a,b)) - so no extra implementation
-* Additional tests are probably not necessary</t>
-  </si>
-  <si>
-    <t>* Implementation incorrect when list contains null</t>
-  </si>
-  <si>
-    <t>* Implementation incorrect when list is null
-* Needs test for when list is null</t>
-  </si>
-  <si>
-    <t>* Implementation supports Quantity type, but that's not in spec</t>
-  </si>
-  <si>
-    <t>* Long not supported
-* String not supported</t>
-  </si>
-  <si>
-    <t>* Needs tests for List with Null items (in test data but not in JS)</t>
-  </si>
-  <si>
-    <t>* Long not supported
-* Tests are incomplete</t>
-  </si>
-  <si>
-    <t>* Requires support from PatientSource</t>
-  </si>
-  <si>
-    <t>* Long not supported
-* Needs tests for Decimal, Long, Integer</t>
-  </si>
-  <si>
-    <t>* Needs tests for List&lt;Code&gt;</t>
-  </si>
-  <si>
-    <t>* Boolean not supported</t>
-  </si>
-  <si>
-    <t>* Boolean and Long not supported</t>
-  </si>
-  <si>
-    <t>* Implemented in list.js</t>
-  </si>
-  <si>
-    <t>* Ratio not supported</t>
-  </si>
-  <si>
-    <t>* Needs tests for units other than years</t>
-  </si>
-  <si>
-    <t>* May require access to a terminology server</t>
-  </si>
-  <si>
-    <t>* Needs tests for Concept, List&lt;Concept&gt;, and List&lt;string&gt;</t>
-  </si>
-  <si>
-    <t>* Implemented in nullological.js</t>
-  </si>
-  <si>
-    <t>* Not all escape sequences seem to be supported</t>
-  </si>
-  <si>
-    <t>* Implicitly tested in many tests</t>
-  </si>
-  <si>
-    <t>* Implicitly tested in many other tests</t>
-  </si>
-  <si>
-    <t>* Not supported as argument to function</t>
-  </si>
-  <si>
-    <t>* According to spec: Note that this operation should almost never be performed in practice. Code system references are allowed in order to allow for testing of code membership in a particular code system.</t>
-  </si>
-  <si>
-    <t>* Tested in instance-test.js</t>
-  </si>
-  <si>
-    <t>* CodeSystem property not supported</t>
-  </si>
-  <si>
-    <t>* Not supported w/ its own class, but extracted from Library</t>
-  </si>
-  <si>
-    <t>* Unclear if Practitioner context is actually part of the spec.</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>* Retrieves not supported
-* References to expressions in other libraries not supported</t>
-  </si>
-  <si>
-    <t>* ParameterType property not supported (but may not be used)</t>
-  </si>
-  <si>
-    <t>External Data: Retrieve - contextProperty</t>
-  </si>
-  <si>
-    <t>Status Summary</t>
-  </si>
-  <si>
-    <t>* Implementation is incorrect (swapped with PopulationVariance)
-* Needs tests for List with Null items</t>
-  </si>
-  <si>
-    <t>GH Issue</t>
-  </si>
-  <si>
-    <t>156
-157</t>
-  </si>
-  <si>
-    <t>* Implementation is incorrect (swapped with StdDev)
-* Needs tests for List with Null items</t>
-  </si>
-  <si>
-    <t>* Implementation is incorrect (swapped with PopulationStdDev)
-* Needs tests for List with Null items</t>
-  </si>
-  <si>
-    <t>* Returns NaN for invalid operations (should be null)
-* Needs tests for Null</t>
-  </si>
-  <si>
-    <t>* Returns NaN for invalid operations (should be null)
-* Needs tests for null</t>
-  </si>
-  <si>
-    <t>* Returns NaN for invalid operations (should be null)
-* Long not supported
-* Needs tests for Decimal, Quantity, and Null</t>
-  </si>
-  <si>
-    <t>* Broken for (Quantity / Decimal)
-* Needs tests for Quantity and Null</t>
-  </si>
-  <si>
-    <t>* Implementaton for Decimal needs to be checked
-* Long not supported
-* Needs tests for Date</t>
-  </si>
-  <si>
-    <t>* Wrong answer for negative decimals
-* Needs tests for Null</t>
-  </si>
-  <si>
-    <t>* Wrong answer for negative decimals
-* Long not supported
-* Needs tests for Decimal, Quantity, and Null</t>
-  </si>
-  <si>
-    <t>incorrect</t>
-  </si>
-  <si>
-    <t>* Does not respect strict cast
-* Needs tests
-* Requires support from PatientSource</t>
-  </si>
-  <si>
-    <t>* Incorrect for some quantity checks
-* Long not supported
-* Date/DateTime equality has new semantics
-* Also needs tests for Decimal and Time</t>
+    <t>* Needs tests for Decimal, Quantity, Date, and Time</t>
   </si>
   <si>
     <t>* Not working correctly in test w/ "per 2 days"
-* Long not supported
 * Need to compare implementation to behavior defined in specification (it's complicated)</t>
   </si>
   <si>
-    <t>* Results in null when Interval is null (should be false)
-* Long not supported
-* Timezone normalization may currently be too aggressive (should only be normalized when precision is h/m/s/ms)
-* Needs tests for Date and Time</t>
-  </si>
-  <si>
-    <t>* Incorrect w/ infinite intervals
-* Long not supported
-* Timezone normalization may currently be too aggressive (should only be normalized when precision is h/m/s/ms)
-* Needs tests for Date and Time</t>
-  </si>
-  <si>
-    <t>* Implementation incorrect when list is null
-* Long not supported</t>
-  </si>
-  <si>
-    <t>* Should only return true if it matches entire input string</t>
-  </si>
-  <si>
-    <t>* Should return list of original string if separator is null</t>
-  </si>
-  <si>
-    <t>* Implementation incorrect for ToString(Time) when hours &lt; 10
-* Implementation incorrect for Time/DateTime when single-digit millis
-* Long not supported
-* Needs tests</t>
-  </si>
-  <si>
-    <t>199
-200</t>
-  </si>
-  <si>
-    <t>* Wrong answer for Power(null, null)
-* Some issues w/ very large numbers
-* Long not supported
-* Needs tests for Decimal and Null</t>
-  </si>
-  <si>
-    <t>187
-201</t>
-  </si>
-  <si>
-    <t>* Appears there may be issues w/ months between
-* Needs tests for Date and Time</t>
-  </si>
-  <si>
-    <t>202
-192</t>
-  </si>
-  <si>
-    <t>* Time should not have an offset</t>
-  </si>
-  <si>
-    <t>* Whole number decimals may be treated like integers
-* Long not supported
-* Needs tests for Quantity, Date, Time, and Null</t>
-  </si>
-  <si>
-    <t>* For quantities, may not use smallest unit in result (see GH issue)
-* Not supported for Uncertainties
-* Long not supported
-* Needs tests for Decimal, Quantity, and Null</t>
-  </si>
-  <si>
-    <t>* Not supported for Uncertainties
-* Long not supported
-* Needs tests for Quantity and Null</t>
-  </si>
-  <si>
-    <t>186
-177</t>
+    <t>* Needs tests for Quantity, Date, and Time</t>
+  </si>
+  <si>
+    <t>* Tests are incomplete</t>
+  </si>
+  <si>
+    <t>* Needs tests for Decimal, Long, Integer</t>
   </si>
 </sst>
 </file>
@@ -3210,7 +3045,7 @@
   <dimension ref="A1:J318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J96" sqref="J96"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3244,16 +3079,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>823</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -3278,7 +3113,7 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="8" t="s">
-        <v>810</v>
+        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -3305,7 +3140,7 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="8" t="s">
-        <v>807</v>
+        <v>778</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3436,7 +3271,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -3450,18 +3285,16 @@
         <v>400</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="8" t="s">
-        <v>808</v>
-      </c>
+      <c r="I9" s="8"/>
       <c r="J9">
         <v>155</v>
       </c>
@@ -3641,7 +3474,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -3662,7 +3495,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -3682,10 +3515,10 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="8" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3.1</v>
       </c>
@@ -3708,10 +3541,10 @@
         <v>15</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3.2</v>
       </c>
@@ -3736,7 +3569,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>3.3</v>
       </c>
@@ -3757,7 +3590,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>4</v>
@@ -3778,10 +3611,10 @@
         <v>748</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>3.4</v>
       </c>
@@ -3806,7 +3639,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>3.5</v>
       </c>
@@ -3826,10 +3659,10 @@
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="8" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3.6</v>
       </c>
@@ -3852,10 +3685,10 @@
         <v>15</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>3.7</v>
       </c>
@@ -3880,7 +3713,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>3.8</v>
       </c>
@@ -3901,7 +3734,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -3924,10 +3757,10 @@
         <v>15</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -3950,7 +3783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>4</v>
@@ -3971,10 +3804,10 @@
         <v>748</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -3998,10 +3831,10 @@
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="8" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>37</v>
       </c>
@@ -4011,16 +3844,21 @@
         <v>421</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>14</v>
+        <v>748</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>14</v>
+        <v>748</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="6"/>
-      <c r="I32" s="8"/>
+      <c r="I32" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="J32">
+        <v>226</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
@@ -4063,7 +3901,7 @@
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="8" t="s">
-        <v>809</v>
+        <v>779</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -4086,7 +3924,7 @@
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="8" t="s">
-        <v>809</v>
+        <v>779</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -4109,7 +3947,7 @@
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="8" t="s">
-        <v>809</v>
+        <v>779</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -4132,7 +3970,7 @@
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="8" t="s">
-        <v>809</v>
+        <v>779</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -4155,7 +3993,7 @@
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="8" t="s">
-        <v>809</v>
+        <v>779</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -4207,7 +4045,7 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="8" t="s">
-        <v>815</v>
+        <v>785</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -4230,7 +4068,7 @@
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="8" t="s">
-        <v>815</v>
+        <v>785</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -4278,11 +4116,11 @@
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>817</v>
+        <v>787</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="8" t="s">
-        <v>816</v>
+        <v>786</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -4309,10 +4147,10 @@
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="8" t="s">
-        <v>818</v>
+        <v>788</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>824</v>
+        <v>793</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -4339,7 +4177,7 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="8" t="s">
-        <v>815</v>
+        <v>785</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4366,7 +4204,7 @@
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="8" t="s">
-        <v>819</v>
+        <v>789</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -4410,7 +4248,7 @@
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="8" t="s">
-        <v>809</v>
+        <v>779</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -5016,7 +4854,7 @@
         <v>15</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>817</v>
+        <v>787</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="8"/>
@@ -5083,7 +4921,7 @@
         <v>15</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>817</v>
+        <v>787</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="8"/>
@@ -5167,7 +5005,7 @@
         <v>15</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>817</v>
+        <v>787</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="8"/>
@@ -5204,7 +5042,7 @@
         <v>18</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>820</v>
+        <v>790</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>15</v>
@@ -5213,7 +5051,7 @@
         <v>15</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>817</v>
+        <v>787</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="8"/>
@@ -5297,7 +5135,7 @@
         <v>15</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>817</v>
+        <v>787</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="8"/>
@@ -5543,7 +5381,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>218</v>
       </c>
@@ -5557,7 +5395,7 @@
         <v>236</v>
       </c>
       <c r="E97" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F97" t="s">
         <v>748</v>
@@ -5566,10 +5404,10 @@
         <v>748</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>219</v>
       </c>
@@ -5583,7 +5421,7 @@
         <v>237</v>
       </c>
       <c r="E98" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
         <v>748</v>
@@ -5592,13 +5430,13 @@
         <v>748</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>836</v>
+        <v>805</v>
       </c>
       <c r="J98">
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>220</v>
       </c>
@@ -5612,7 +5450,7 @@
         <v>238</v>
       </c>
       <c r="E99" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
         <v>748</v>
@@ -5621,10 +5459,10 @@
         <v>748</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>221</v>
       </c>
@@ -5638,7 +5476,7 @@
         <v>578</v>
       </c>
       <c r="E100" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F100" t="s">
         <v>748</v>
@@ -5647,10 +5485,10 @@
         <v>748</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>222</v>
       </c>
@@ -5664,7 +5502,7 @@
         <v>239</v>
       </c>
       <c r="E101" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F101" t="s">
         <v>748</v>
@@ -5673,10 +5511,10 @@
         <v>748</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>223</v>
       </c>
@@ -5690,7 +5528,7 @@
         <v>579</v>
       </c>
       <c r="E102" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F102" t="s">
         <v>748</v>
@@ -5699,7 +5537,7 @@
         <v>748</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>760</v>
+        <v>804</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -5716,7 +5554,7 @@
         <v>580</v>
       </c>
       <c r="E103" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F103" t="s">
         <v>748</v>
@@ -5740,7 +5578,7 @@
         <v>240</v>
       </c>
       <c r="E104" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F104" t="s">
         <v>748</v>
@@ -6035,7 +5873,7 @@
       <c r="H116" s="6"/>
       <c r="I116" s="8"/>
     </row>
-    <row r="117" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>500</v>
       </c>
@@ -6049,7 +5887,7 @@
         <v>241</v>
       </c>
       <c r="E117" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F117" t="s">
         <v>748</v>
@@ -6058,10 +5896,10 @@
         <v>748</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>501</v>
       </c>
@@ -6075,7 +5913,7 @@
         <v>242</v>
       </c>
       <c r="E118" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F118" t="s">
         <v>748</v>
@@ -6084,7 +5922,7 @@
         <v>748</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>852</v>
+        <v>799</v>
       </c>
       <c r="J118">
         <v>177</v>
@@ -6113,10 +5951,10 @@
         <v>15</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>503</v>
       </c>
@@ -6130,7 +5968,7 @@
         <v>244</v>
       </c>
       <c r="E120" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F120" t="s">
         <v>748</v>
@@ -6139,7 +5977,7 @@
         <v>15</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>830</v>
+        <v>799</v>
       </c>
       <c r="J120">
         <v>183</v>
@@ -6168,7 +6006,7 @@
         <v>15</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6194,7 +6032,7 @@
         <v>15</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
@@ -6223,7 +6061,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>507</v>
       </c>
@@ -6237,7 +6075,7 @@
         <v>248</v>
       </c>
       <c r="E124" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F124" t="s">
         <v>748</v>
@@ -6246,7 +6084,7 @@
         <v>15</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>827</v>
+        <v>756</v>
       </c>
       <c r="J124">
         <v>184</v>
@@ -6278,7 +6116,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>509</v>
       </c>
@@ -6292,7 +6130,7 @@
         <v>250</v>
       </c>
       <c r="E126" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F126" t="s">
         <v>748</v>
@@ -6301,13 +6139,13 @@
         <v>15</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>828</v>
+        <v>800</v>
       </c>
       <c r="J126">
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>510</v>
       </c>
@@ -6318,10 +6156,10 @@
         <v>101</v>
       </c>
       <c r="D127" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E127" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F127" t="s">
         <v>748</v>
@@ -6330,13 +6168,13 @@
         <v>748</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>831</v>
+        <v>807</v>
       </c>
       <c r="J127">
         <v>185</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>511</v>
       </c>
@@ -6347,10 +6185,10 @@
         <v>102</v>
       </c>
       <c r="D128" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E128" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F128" t="s">
         <v>748</v>
@@ -6359,13 +6197,13 @@
         <v>748</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>831</v>
+        <v>807</v>
       </c>
       <c r="J128">
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>512</v>
       </c>
@@ -6379,7 +6217,7 @@
         <v>251</v>
       </c>
       <c r="E129" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F129" t="s">
         <v>748</v>
@@ -6388,13 +6226,13 @@
         <v>748</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="J129">
         <v>184</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>513</v>
       </c>
@@ -6408,7 +6246,7 @@
         <v>252</v>
       </c>
       <c r="E130" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F130" t="s">
         <v>748</v>
@@ -6417,13 +6255,13 @@
         <v>748</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>851</v>
+        <v>808</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>514</v>
       </c>
@@ -6437,7 +6275,7 @@
         <v>253</v>
       </c>
       <c r="E131" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F131" t="s">
         <v>748</v>
@@ -6446,10 +6284,10 @@
         <v>748</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>516</v>
       </c>
@@ -6463,7 +6301,7 @@
         <v>256</v>
       </c>
       <c r="E132" t="s">
-        <v>834</v>
+        <v>794</v>
       </c>
       <c r="F132" t="s">
         <v>748</v>
@@ -6472,10 +6310,10 @@
         <v>748</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>845</v>
+        <v>810</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>846</v>
+        <v>796</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
@@ -6504,7 +6342,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>517</v>
       </c>
@@ -6518,7 +6356,7 @@
         <v>255</v>
       </c>
       <c r="E134" t="s">
-        <v>834</v>
+        <v>794</v>
       </c>
       <c r="F134" t="s">
         <v>748</v>
@@ -6527,7 +6365,7 @@
         <v>748</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>850</v>
+        <v>811</v>
       </c>
       <c r="J134">
         <v>204</v>
@@ -6556,10 +6394,10 @@
         <v>15</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>519</v>
       </c>
@@ -6573,7 +6411,7 @@
         <v>258</v>
       </c>
       <c r="E136" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F136" t="s">
         <v>748</v>
@@ -6582,13 +6420,13 @@
         <v>748</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>852</v>
+        <v>799</v>
       </c>
       <c r="J136">
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>520</v>
       </c>
@@ -6602,7 +6440,7 @@
         <v>259</v>
       </c>
       <c r="E137" t="s">
-        <v>834</v>
+        <v>794</v>
       </c>
       <c r="F137" t="s">
         <v>748</v>
@@ -6611,13 +6449,13 @@
         <v>748</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>850</v>
+        <v>811</v>
       </c>
       <c r="J137">
         <v>204</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>521</v>
       </c>
@@ -6631,7 +6469,7 @@
         <v>260</v>
       </c>
       <c r="E138" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F138" t="s">
         <v>748</v>
@@ -6640,13 +6478,13 @@
         <v>15</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>832</v>
+        <v>756</v>
       </c>
       <c r="J138">
         <v>188</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>522</v>
       </c>
@@ -6660,7 +6498,7 @@
         <v>261</v>
       </c>
       <c r="E139" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F139" t="s">
         <v>748</v>
@@ -6669,7 +6507,7 @@
         <v>748</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>833</v>
+        <v>808</v>
       </c>
       <c r="J139">
         <v>189</v>
@@ -6698,7 +6536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>524</v>
       </c>
@@ -6712,16 +6550,13 @@
         <v>263</v>
       </c>
       <c r="E141" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F141" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="G141" t="s">
         <v>15</v>
-      </c>
-      <c r="I141" s="5" t="s">
-        <v>766</v>
       </c>
       <c r="J141">
         <v>161</v>
@@ -6773,7 +6608,7 @@
         <v>15</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6799,7 +6634,7 @@
         <v>15</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -6894,7 +6729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>534</v>
       </c>
@@ -6908,16 +6743,13 @@
         <v>269</v>
       </c>
       <c r="E149" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
       </c>
       <c r="G149" t="s">
         <v>15</v>
-      </c>
-      <c r="I149" s="5" t="s">
-        <v>841</v>
       </c>
       <c r="J149">
         <v>197</v>
@@ -6986,10 +6818,10 @@
         <v>271</v>
       </c>
       <c r="E152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G152" t="s">
         <v>15</v>
@@ -6998,7 +6830,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>539</v>
       </c>
@@ -7012,16 +6844,13 @@
         <v>272</v>
       </c>
       <c r="E153" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
       </c>
       <c r="G153" t="s">
         <v>15</v>
-      </c>
-      <c r="I153" s="5" t="s">
-        <v>842</v>
       </c>
       <c r="J153">
         <v>198</v>
@@ -7119,7 +6948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>544</v>
       </c>
@@ -7133,7 +6962,7 @@
         <v>277</v>
       </c>
       <c r="E158" t="s">
-        <v>834</v>
+        <v>794</v>
       </c>
       <c r="F158" t="s">
         <v>748</v>
@@ -7142,13 +6971,13 @@
         <v>15</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>768</v>
+        <v>801</v>
       </c>
       <c r="J158">
         <v>191</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>554</v>
       </c>
@@ -7162,7 +6991,7 @@
         <v>278</v>
       </c>
       <c r="E159" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F159" t="s">
         <v>748</v>
@@ -7171,10 +7000,10 @@
         <v>15</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>555</v>
       </c>
@@ -7188,7 +7017,7 @@
         <v>279</v>
       </c>
       <c r="E160" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F160" t="s">
         <v>748</v>
@@ -7197,7 +7026,7 @@
         <v>15</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7223,7 +7052,7 @@
         <v>15</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7249,7 +7078,7 @@
         <v>15</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7275,7 +7104,7 @@
         <v>15</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -7347,7 +7176,7 @@
         <v>15</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -7373,7 +7202,7 @@
         <v>15</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7390,7 +7219,7 @@
         <v>550</v>
       </c>
       <c r="E168" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F168" t="s">
         <v>748</v>
@@ -7399,10 +7228,10 @@
         <v>15</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>847</v>
+        <v>763</v>
       </c>
       <c r="J168" s="5" t="s">
-        <v>848</v>
+        <v>797</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -7466,7 +7295,7 @@
         <v>283</v>
       </c>
       <c r="E171" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F171" t="s">
         <v>748</v>
@@ -7475,7 +7304,7 @@
         <v>15</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7490,7 +7319,7 @@
         <v>284</v>
       </c>
       <c r="E172" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F172" t="s">
         <v>748</v>
@@ -7499,10 +7328,10 @@
         <v>15</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>566</v>
       </c>
@@ -7516,7 +7345,7 @@
         <v>575</v>
       </c>
       <c r="E173" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F173" t="s">
         <v>748</v>
@@ -7525,10 +7354,10 @@
         <v>15</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>567</v>
       </c>
@@ -7542,7 +7371,7 @@
         <v>576</v>
       </c>
       <c r="E174" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F174" t="s">
         <v>748</v>
@@ -7551,10 +7380,10 @@
         <v>15</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>568</v>
       </c>
@@ -7568,7 +7397,7 @@
         <v>577</v>
       </c>
       <c r="E175" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F175" t="s">
         <v>748</v>
@@ -7577,7 +7406,7 @@
         <v>15</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="68" x14ac:dyDescent="0.2">
@@ -7594,7 +7423,7 @@
         <v>285</v>
       </c>
       <c r="E176" t="s">
-        <v>834</v>
+        <v>794</v>
       </c>
       <c r="F176" t="s">
         <v>748</v>
@@ -7603,13 +7432,13 @@
         <v>15</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="J176">
         <v>191</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>570</v>
       </c>
@@ -7623,16 +7452,13 @@
         <v>286</v>
       </c>
       <c r="E177" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F177" t="s">
         <v>14</v>
       </c>
       <c r="G177" t="s">
         <v>15</v>
-      </c>
-      <c r="I177" s="5" t="s">
-        <v>849</v>
       </c>
       <c r="J177">
         <v>203</v>
@@ -7747,7 +7573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>590</v>
       </c>
@@ -7761,7 +7587,7 @@
         <v>289</v>
       </c>
       <c r="E183" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F183" t="s">
         <v>748</v>
@@ -7770,10 +7596,10 @@
         <v>748</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>591</v>
       </c>
@@ -7787,7 +7613,7 @@
         <v>290</v>
       </c>
       <c r="E184" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F184" t="s">
         <v>748</v>
@@ -7796,10 +7622,10 @@
         <v>748</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>592</v>
       </c>
@@ -7813,7 +7639,7 @@
         <v>291</v>
       </c>
       <c r="E185" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F185" t="s">
         <v>748</v>
@@ -7822,10 +7648,10 @@
         <v>748</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>593</v>
       </c>
@@ -7839,7 +7665,7 @@
         <v>292</v>
       </c>
       <c r="E186" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F186" t="s">
         <v>748</v>
@@ -7848,13 +7674,13 @@
         <v>748</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>838</v>
+        <v>763</v>
       </c>
       <c r="J186">
         <v>194</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>594</v>
       </c>
@@ -7868,7 +7694,7 @@
         <v>293</v>
       </c>
       <c r="E187" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F187" t="s">
         <v>748</v>
@@ -7877,10 +7703,10 @@
         <v>748</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>595</v>
       </c>
@@ -7894,7 +7720,7 @@
         <v>294</v>
       </c>
       <c r="E188" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F188" t="s">
         <v>748</v>
@@ -7903,10 +7729,10 @@
         <v>748</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>596</v>
       </c>
@@ -7920,7 +7746,7 @@
         <v>295</v>
       </c>
       <c r="E189" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F189" t="s">
         <v>748</v>
@@ -7929,10 +7755,10 @@
         <v>748</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>597</v>
       </c>
@@ -7946,7 +7772,7 @@
         <v>296</v>
       </c>
       <c r="E190" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F190" t="s">
         <v>748</v>
@@ -7955,10 +7781,10 @@
         <v>748</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>598</v>
       </c>
@@ -7972,7 +7798,7 @@
         <v>297</v>
       </c>
       <c r="E191" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F191" t="s">
         <v>748</v>
@@ -7981,10 +7807,10 @@
         <v>748</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>599</v>
       </c>
@@ -7998,7 +7824,7 @@
         <v>298</v>
       </c>
       <c r="E192" t="s">
-        <v>834</v>
+        <v>794</v>
       </c>
       <c r="F192" t="s">
         <v>748</v>
@@ -8007,13 +7833,13 @@
         <v>748</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="J192">
         <v>193</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>600</v>
       </c>
@@ -8027,7 +7853,7 @@
         <v>299</v>
       </c>
       <c r="E193" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F193" t="s">
         <v>748</v>
@@ -8036,10 +7862,10 @@
         <v>748</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>601</v>
       </c>
@@ -8053,7 +7879,7 @@
         <v>300</v>
       </c>
       <c r="E194" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F194" t="s">
         <v>748</v>
@@ -8062,10 +7888,10 @@
         <v>748</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>602</v>
       </c>
@@ -8079,7 +7905,7 @@
         <v>583</v>
       </c>
       <c r="E195" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F195" t="s">
         <v>748</v>
@@ -8088,10 +7914,10 @@
         <v>748</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>603</v>
       </c>
@@ -8105,7 +7931,7 @@
         <v>301</v>
       </c>
       <c r="E196" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F196" t="s">
         <v>748</v>
@@ -8114,10 +7940,10 @@
         <v>748</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>604</v>
       </c>
@@ -8131,7 +7957,7 @@
         <v>302</v>
       </c>
       <c r="E197" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F197" t="s">
         <v>748</v>
@@ -8140,10 +7966,10 @@
         <v>748</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>605</v>
       </c>
@@ -8151,7 +7977,7 @@
         <v>585</v>
       </c>
       <c r="E198" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F198" t="s">
         <v>748</v>
@@ -8160,10 +7986,10 @@
         <v>748</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>606</v>
       </c>
@@ -8171,7 +7997,7 @@
         <v>584</v>
       </c>
       <c r="E199" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F199" t="s">
         <v>748</v>
@@ -8180,7 +8006,7 @@
         <v>748</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
@@ -8221,7 +8047,7 @@
         <v>304</v>
       </c>
       <c r="E201" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F201" t="s">
         <v>748</v>
@@ -8245,7 +8071,7 @@
         <v>305</v>
       </c>
       <c r="E202" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F202" t="s">
         <v>748</v>
@@ -8254,7 +8080,7 @@
         <v>748</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -8269,7 +8095,7 @@
         <v>306</v>
       </c>
       <c r="E203" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F203" t="s">
         <v>748</v>
@@ -8278,10 +8104,10 @@
         <v>748</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>608</v>
       </c>
@@ -8295,7 +8121,7 @@
         <v>307</v>
       </c>
       <c r="E204" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F204" t="s">
         <v>748</v>
@@ -8304,10 +8130,10 @@
         <v>748</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>609</v>
       </c>
@@ -8315,7 +8141,7 @@
         <v>586</v>
       </c>
       <c r="E205" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F205" t="s">
         <v>748</v>
@@ -8324,10 +8150,10 @@
         <v>748</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>610</v>
       </c>
@@ -8335,7 +8161,7 @@
         <v>587</v>
       </c>
       <c r="E206" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F206" t="s">
         <v>748</v>
@@ -8344,7 +8170,7 @@
         <v>748</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>781</v>
+        <v>817</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
@@ -8419,7 +8245,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>614</v>
       </c>
@@ -8433,7 +8259,7 @@
         <v>309</v>
       </c>
       <c r="E210" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F210" t="s">
         <v>748</v>
@@ -8442,13 +8268,13 @@
         <v>748</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>839</v>
+        <v>763</v>
       </c>
       <c r="J210">
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>615</v>
       </c>
@@ -8462,7 +8288,7 @@
         <v>310</v>
       </c>
       <c r="E211" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F211" t="s">
         <v>748</v>
@@ -8471,13 +8297,13 @@
         <v>748</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>839</v>
+        <v>763</v>
       </c>
       <c r="J211">
         <v>196</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" t="s">
         <v>4</v>
@@ -8489,7 +8315,7 @@
         <v>311</v>
       </c>
       <c r="E212" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F212" t="s">
         <v>748</v>
@@ -8498,10 +8324,10 @@
         <v>748</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" t="s">
         <v>4</v>
@@ -8513,7 +8339,7 @@
         <v>312</v>
       </c>
       <c r="E213" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F213" t="s">
         <v>748</v>
@@ -8522,10 +8348,10 @@
         <v>748</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" t="s">
         <v>4</v>
@@ -8537,7 +8363,7 @@
         <v>313</v>
       </c>
       <c r="E214" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F214" t="s">
         <v>748</v>
@@ -8546,10 +8372,10 @@
         <v>748</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>616</v>
       </c>
@@ -8563,19 +8389,16 @@
         <v>314</v>
       </c>
       <c r="E215" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="G215" t="s">
         <v>748</v>
       </c>
-      <c r="I215" s="5" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>617</v>
       </c>
@@ -8589,7 +8412,7 @@
         <v>315</v>
       </c>
       <c r="E216" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F216" t="s">
         <v>748</v>
@@ -8598,10 +8421,10 @@
         <v>748</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>618</v>
       </c>
@@ -8615,7 +8438,7 @@
         <v>316</v>
       </c>
       <c r="E217" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F217" t="s">
         <v>748</v>
@@ -8624,10 +8447,10 @@
         <v>748</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>619</v>
       </c>
@@ -8641,7 +8464,7 @@
         <v>317</v>
       </c>
       <c r="E218" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F218" t="s">
         <v>748</v>
@@ -8650,10 +8473,10 @@
         <v>748</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>620</v>
       </c>
@@ -8667,16 +8490,13 @@
         <v>318</v>
       </c>
       <c r="E219" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F219" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="G219" t="s">
         <v>748</v>
-      </c>
-      <c r="I219" s="5" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
@@ -8696,7 +8516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>634</v>
       </c>
@@ -8710,16 +8530,13 @@
         <v>319</v>
       </c>
       <c r="E221" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F221" t="s">
         <v>14</v>
       </c>
       <c r="G221" t="s">
         <v>15</v>
-      </c>
-      <c r="I221" s="5" t="s">
-        <v>783</v>
       </c>
       <c r="J221">
         <v>164</v>
@@ -8742,7 +8559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>636</v>
       </c>
@@ -8756,16 +8573,13 @@
         <v>320</v>
       </c>
       <c r="E223" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F223" t="s">
         <v>14</v>
       </c>
       <c r="G223" t="s">
         <v>15</v>
-      </c>
-      <c r="I223" s="5" t="s">
-        <v>784</v>
       </c>
       <c r="J223">
         <v>165</v>
@@ -8808,7 +8622,7 @@
         <v>322</v>
       </c>
       <c r="E225" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F225" t="s">
         <v>748</v>
@@ -8817,10 +8631,10 @@
         <v>15</v>
       </c>
       <c r="I225" s="5" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>639</v>
       </c>
@@ -8834,16 +8648,13 @@
         <v>323</v>
       </c>
       <c r="E226" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F226" t="s">
         <v>14</v>
       </c>
       <c r="G226" t="s">
         <v>15</v>
-      </c>
-      <c r="I226" s="5" t="s">
-        <v>786</v>
       </c>
       <c r="J226">
         <v>166</v>
@@ -8952,7 +8763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>645</v>
       </c>
@@ -8966,22 +8777,19 @@
         <v>327</v>
       </c>
       <c r="E232" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F232" t="s">
         <v>14</v>
       </c>
       <c r="G232" t="s">
         <v>748</v>
-      </c>
-      <c r="I232" s="5" t="s">
-        <v>840</v>
       </c>
       <c r="J232">
         <v>164</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>646</v>
       </c>
@@ -8995,7 +8803,7 @@
         <v>328</v>
       </c>
       <c r="E233" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F233" t="s">
         <v>14</v>
@@ -9003,11 +8811,8 @@
       <c r="G233" t="s">
         <v>748</v>
       </c>
-      <c r="I233" s="5" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>647</v>
       </c>
@@ -9021,16 +8826,13 @@
         <v>329</v>
       </c>
       <c r="E234" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F234" t="s">
         <v>14</v>
       </c>
       <c r="G234" t="s">
         <v>748</v>
-      </c>
-      <c r="I234" s="5" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
@@ -9077,7 +8879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>649</v>
       </c>
@@ -9091,16 +8893,13 @@
         <v>332</v>
       </c>
       <c r="E237" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F237" t="s">
         <v>14</v>
       </c>
       <c r="G237" t="s">
         <v>15</v>
-      </c>
-      <c r="I237" s="5" t="s">
-        <v>789</v>
       </c>
       <c r="J237">
         <v>167</v>
@@ -9129,7 +8928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" t="s">
         <v>4</v>
@@ -9141,16 +8940,13 @@
         <v>334</v>
       </c>
       <c r="E239" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F239" t="s">
         <v>14</v>
       </c>
       <c r="G239" t="s">
         <v>15</v>
-      </c>
-      <c r="I239" s="5" t="s">
-        <v>783</v>
       </c>
       <c r="J239">
         <v>168</v>
@@ -9203,7 +8999,7 @@
         <v>15</v>
       </c>
       <c r="I241" s="10" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
@@ -9338,7 +9134,7 @@
         <v>338</v>
       </c>
       <c r="E248" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F248" t="s">
         <v>15</v>
@@ -9358,7 +9154,7 @@
         <v>630</v>
       </c>
       <c r="E249" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F249" t="s">
         <v>15</v>
@@ -9396,7 +9192,7 @@
         <v>339</v>
       </c>
       <c r="E251" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F251" t="s">
         <v>15</v>
@@ -9420,7 +9216,7 @@
         <v>340</v>
       </c>
       <c r="E252" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F252" t="s">
         <v>15</v>
@@ -9472,7 +9268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>664</v>
       </c>
@@ -9486,16 +9282,13 @@
         <v>342</v>
       </c>
       <c r="E255" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F255" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="G255" t="s">
         <v>15</v>
-      </c>
-      <c r="I255" s="5" t="s">
-        <v>791</v>
       </c>
       <c r="J255">
         <v>172</v>
@@ -9547,7 +9340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>667</v>
       </c>
@@ -9561,16 +9354,13 @@
         <v>345</v>
       </c>
       <c r="E258" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F258" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="G258" t="s">
         <v>15</v>
-      </c>
-      <c r="I258" s="5" t="s">
-        <v>792</v>
       </c>
       <c r="J258">
         <v>173</v>
@@ -9599,10 +9389,10 @@
         <v>15</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>669</v>
       </c>
@@ -9616,19 +9406,16 @@
         <v>351</v>
       </c>
       <c r="E260" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F260" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="G260" t="s">
         <v>748</v>
       </c>
-      <c r="I260" s="5" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>670</v>
       </c>
@@ -9642,16 +9429,13 @@
         <v>347</v>
       </c>
       <c r="E261" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F261" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="G261" t="s">
         <v>748</v>
-      </c>
-      <c r="I261" s="5" t="s">
-        <v>794</v>
       </c>
       <c r="J261">
         <v>181</v>
@@ -9680,10 +9464,10 @@
         <v>15</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>672</v>
       </c>
@@ -9697,22 +9481,19 @@
         <v>348</v>
       </c>
       <c r="E263" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F263" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="G263" t="s">
         <v>748</v>
-      </c>
-      <c r="I263" s="5" t="s">
-        <v>794</v>
       </c>
       <c r="J263">
         <v>181</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>673</v>
       </c>
@@ -9726,19 +9507,16 @@
         <v>350</v>
       </c>
       <c r="E264" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F264" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="G264" t="s">
         <v>748</v>
       </c>
-      <c r="I264" s="5" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>674</v>
       </c>
@@ -9752,7 +9530,7 @@
         <v>662</v>
       </c>
       <c r="E265" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F265" t="s">
         <v>748</v>
@@ -9761,13 +9539,13 @@
         <v>15</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="J265">
         <v>49</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>675</v>
       </c>
@@ -9781,7 +9559,7 @@
         <v>663</v>
       </c>
       <c r="E266" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F266" t="s">
         <v>748</v>
@@ -9790,13 +9568,13 @@
         <v>15</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
       <c r="J266">
         <v>182</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>666</v>
       </c>
@@ -9810,19 +9588,16 @@
         <v>353</v>
       </c>
       <c r="E267" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F267" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="G267" t="s">
         <v>748</v>
       </c>
-      <c r="I267" s="5" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>676</v>
       </c>
@@ -9836,7 +9611,7 @@
         <v>352</v>
       </c>
       <c r="E268" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F268" t="s">
         <v>748</v>
@@ -9845,13 +9620,13 @@
         <v>15</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>826</v>
+        <v>802</v>
       </c>
       <c r="J268">
         <v>182</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>677</v>
       </c>
@@ -9865,7 +9640,7 @@
         <v>354</v>
       </c>
       <c r="E269" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F269" t="s">
         <v>748</v>
@@ -9874,13 +9649,13 @@
         <v>15</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="J269">
         <v>49</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>683</v>
       </c>
@@ -9894,7 +9669,7 @@
         <v>52</v>
       </c>
       <c r="E270" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F270" t="s">
         <v>15</v>
@@ -9903,7 +9678,7 @@
         <v>15</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>835</v>
+        <v>770</v>
       </c>
       <c r="J270">
         <v>174</v>
@@ -9972,7 +9747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>687</v>
       </c>
@@ -9986,7 +9761,7 @@
         <v>54</v>
       </c>
       <c r="E274" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F274" t="s">
         <v>748</v>
@@ -9995,7 +9770,7 @@
         <v>748</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>796</v>
+        <v>818</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -10021,7 +9796,7 @@
         <v>15</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
@@ -10294,10 +10069,10 @@
         <v>15</v>
       </c>
       <c r="I287" s="5" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>701</v>
       </c>
@@ -10311,7 +10086,7 @@
         <v>68</v>
       </c>
       <c r="E288" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F288" t="s">
         <v>748</v>
@@ -10320,7 +10095,7 @@
         <v>748</v>
       </c>
       <c r="I288" s="5" t="s">
-        <v>798</v>
+        <v>819</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
@@ -10363,7 +10138,7 @@
         <v>15</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>799</v>
+        <v>771</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
@@ -10435,7 +10210,7 @@
         <v>15</v>
       </c>
       <c r="I293" s="5" t="s">
-        <v>800</v>
+        <v>772</v>
       </c>
     </row>
     <row r="294" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -10461,7 +10236,7 @@
         <v>748</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>801</v>
+        <v>772</v>
       </c>
     </row>
     <row r="295" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -10481,7 +10256,7 @@
         <v>15</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>802</v>
+        <v>773</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
@@ -10530,7 +10305,7 @@
         <v>15</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>803</v>
+        <v>774</v>
       </c>
       <c r="J297">
         <v>175</v>
@@ -10553,7 +10328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>712</v>
       </c>
@@ -10567,7 +10342,7 @@
         <v>76</v>
       </c>
       <c r="E299" t="s">
-        <v>834</v>
+        <v>14</v>
       </c>
       <c r="F299" t="s">
         <v>15</v>
@@ -10575,11 +10350,8 @@
       <c r="G299" t="s">
         <v>748</v>
       </c>
-      <c r="I299" s="5" t="s">
-        <v>843</v>
-      </c>
       <c r="J299" s="5" t="s">
-        <v>844</v>
+        <v>795</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
@@ -10681,7 +10453,7 @@
         <v>15</v>
       </c>
       <c r="I304" s="5" t="s">
-        <v>804</v>
+        <v>775</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
@@ -10730,7 +10502,7 @@
         <v>15</v>
       </c>
       <c r="I306" s="5" t="s">
-        <v>804</v>
+        <v>775</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
@@ -10802,7 +10574,7 @@
         <v>15</v>
       </c>
       <c r="I309" s="5" t="s">
-        <v>805</v>
+        <v>776</v>
       </c>
     </row>
     <row r="310" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -10828,7 +10600,7 @@
         <v>15</v>
       </c>
       <c r="I310" s="5" t="s">
-        <v>806</v>
+        <v>777</v>
       </c>
     </row>
     <row r="311" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -10874,7 +10646,7 @@
       </c>
       <c r="H312" s="6"/>
       <c r="I312" s="8" t="s">
-        <v>805</v>
+        <v>776</v>
       </c>
     </row>
     <row r="313" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -10897,7 +10669,7 @@
       </c>
       <c r="H313" s="6"/>
       <c r="I313" s="8" t="s">
-        <v>805</v>
+        <v>776</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
@@ -10980,10 +10752,10 @@
         <v>745</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F317" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G317" s="6" t="s">
         <v>15</v>

--- a/CQL_Execution_Features.xlsx
+++ b/CQL_Execution_Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmoesel/dev/cqframework/cql-execution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CEBA97-3660-5947-8BF1-B2E8511B2C65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E92690-5D2B-6D46-984F-9777D283426E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16920" yWindow="460" windowWidth="34280" windowHeight="26720" xr2:uid="{BD7176B9-F4D7-4641-8174-C94C0FC4637E}"/>
   </bookViews>
@@ -2507,10 +2507,6 @@
     <t>* Needs tests for Decimal, Quantity, Date, and Time</t>
   </si>
   <si>
-    <t>* Not working correctly in test w/ "per 2 days"
-* Need to compare implementation to behavior defined in specification (it's complicated)</t>
-  </si>
-  <si>
     <t>* Needs tests for Quantity, Date, and Time</t>
   </si>
   <si>
@@ -2518,6 +2514,9 @@
   </si>
   <si>
     <t>* Needs tests for Decimal, Long, Integer</t>
+  </si>
+  <si>
+    <t>* Need to compare implementation to behavior defined in specification (it's complicated)</t>
   </si>
 </sst>
 </file>
@@ -7810,7 +7809,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>599</v>
       </c>
@@ -7824,7 +7823,7 @@
         <v>298</v>
       </c>
       <c r="E192" t="s">
-        <v>794</v>
+        <v>14</v>
       </c>
       <c r="F192" t="s">
         <v>748</v>
@@ -7833,7 +7832,7 @@
         <v>748</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="J192">
         <v>193</v>
@@ -8130,7 +8129,7 @@
         <v>748</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8150,7 +8149,7 @@
         <v>748</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -8170,7 +8169,7 @@
         <v>748</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
@@ -9770,7 +9769,7 @@
         <v>748</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="275" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -10095,7 +10094,7 @@
         <v>748</v>
       </c>
       <c r="I288" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">

--- a/CQL_Execution_Features.xlsx
+++ b/CQL_Execution_Features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmoesel/dev/cqframework/cql-execution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E92690-5D2B-6D46-984F-9777D283426E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9B0954-28C4-D147-A11D-81CB66498049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="460" windowWidth="34280" windowHeight="26720" xr2:uid="{BD7176B9-F4D7-4641-8174-C94C0FC4637E}"/>
+    <workbookView xWindow="16920" yWindow="500" windowWidth="34280" windowHeight="26600" xr2:uid="{BD7176B9-F4D7-4641-8174-C94C0FC4637E}"/>
   </bookViews>
   <sheets>
     <sheet name="CQL 1.5" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="821">
   <si>
     <t>Capability</t>
   </si>
@@ -2517,6 +2517,9 @@
   </si>
   <si>
     <t>* Need to compare implementation to behavior defined in specification (it's complicated)</t>
+  </si>
+  <si>
+    <t>* Implemented for date-based types but not numeric types</t>
   </si>
 </sst>
 </file>
@@ -4444,13 +4447,13 @@
         <v>446</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="8"/>
@@ -4719,10 +4722,10 @@
         <v>458</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>14</v>
@@ -6315,7 +6318,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>515</v>
       </c>
@@ -6329,13 +6332,16 @@
         <v>254</v>
       </c>
       <c r="E133" t="s">
-        <v>15</v>
+        <v>748</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
+        <v>748</v>
       </c>
       <c r="G133" t="s">
         <v>15</v>
+      </c>
+      <c r="I133" s="5" t="s">
+        <v>820</v>
       </c>
       <c r="J133">
         <v>160</v>
@@ -10685,10 +10691,10 @@
         <v>733</v>
       </c>
       <c r="E314" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F314" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G314" t="s">
         <v>15</v>

--- a/CQL_Execution_Features.xlsx
+++ b/CQL_Execution_Features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmoesel/dev/cqframework/cql-execution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9B0954-28C4-D147-A11D-81CB66498049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA126A1D-FE83-9D49-8AA0-224FA0B37764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="500" windowWidth="34280" windowHeight="26600" xr2:uid="{BD7176B9-F4D7-4641-8174-C94C0FC4637E}"/>
+    <workbookView xWindow="56200" yWindow="1660" windowWidth="51200" windowHeight="26600" xr2:uid="{BD7176B9-F4D7-4641-8174-C94C0FC4637E}"/>
   </bookViews>
   <sheets>
     <sheet name="CQL 1.5" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="835">
   <si>
     <t>Capability</t>
   </si>
@@ -961,12 +961,6 @@
   </si>
   <si>
     <t>Interval: Point From</t>
-  </si>
-  <si>
-    <t>Interval: Properly Includes</t>
-  </si>
-  <si>
-    <t>Interval: Properly Included In</t>
   </si>
   <si>
     <t>Interval: Same As</t>
@@ -2319,11 +2313,6 @@
 * Needs tests</t>
   </si>
   <si>
-    <t>* Implemented in arithmetic.js
-* Semantics have changed for definite-duration vs calendar duration units
-* Needs tests for Date and Time</t>
-  </si>
-  <si>
     <t>* Implemented in comparison.js
 * Needs tests for Date and Time</t>
   </si>
@@ -2368,9 +2357,6 @@
     <t>* Implemented in list.js</t>
   </si>
   <si>
-    <t>* Ratio not supported</t>
-  </si>
-  <si>
     <t>* Needs tests for units other than years</t>
   </si>
   <si>
@@ -2437,10 +2423,6 @@
 200</t>
   </si>
   <si>
-    <t>187
-201</t>
-  </si>
-  <si>
     <t>202
 192</t>
   </si>
@@ -2453,10 +2435,6 @@
   </si>
   <si>
     <t>* Needs tests for null</t>
-  </si>
-  <si>
-    <t>* Semantics have changed for definite-duration vs calendar duration units
-* Needs tests for Date and Time</t>
   </si>
   <si>
     <t>* Needs tests for List with Null items</t>
@@ -2520,13 +2498,92 @@
   </si>
   <si>
     <t>* Implemented for date-based types but not numeric types</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>187</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+201</t>
+    </r>
+  </si>
+  <si>
+    <t>* Long not supported</t>
+  </si>
+  <si>
+    <t>* Currently not used in CQL?</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>* Used in Related Context Retrieves</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>Interval: ProperIncludes</t>
+  </si>
+  <si>
+    <t>Interval: ProperIncludedIn</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>294</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2559,6 +2616,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2600,31 +2671,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2729,19 +2809,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CFE3D192-473A-F64F-9B16-BDD036BAEF9D}" name="Table1" displayName="Table1" ref="A1:J318" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CFE3D192-473A-F64F-9B16-BDD036BAEF9D}" name="Table1" displayName="Table1" ref="A1:J318" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:J318" xr:uid="{840FAC20-C910-0D4A-BC54-C8C26EB6B00E}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{97C419BE-8AC9-CE46-BE00-F59ED57834C8}" name="Logical" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{97C419BE-8AC9-CE46-BE00-F59ED57834C8}" name="Logical" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{C88805A8-828E-6947-9F49-22481CDE564E}" name="Alt Page"/>
-    <tableColumn id="2" xr3:uid="{3C29D91D-3571-4E43-B6B8-0E58CA9D05E6}" name="Alt" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3C29D91D-3571-4E43-B6B8-0E58CA9D05E6}" name="Alt" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{77229700-2285-904F-B0CF-1C772D2DC797}" name="Capability"/>
     <tableColumn id="4" xr3:uid="{7259AA01-C65A-6D46-9E88-06C6BCEA2CD9}" name="Supported"/>
     <tableColumn id="5" xr3:uid="{84A190A3-FFAC-564D-8811-7377E5E613F1}" name="Tested"/>
     <tableColumn id="6" xr3:uid="{38CEE918-219A-4349-B3E9-41A70AF85329}" name="STU"/>
-    <tableColumn id="9" xr3:uid="{FE296567-86D1-6A48-824C-B5033A571F9A}" name="Status Summary" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{23CAA704-FC4C-1542-A57E-88E3323E03B8}" name="Notes" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{73EEE41B-97DD-4F4B-80AB-7C5C7C415BC9}" name="GH Issue"/>
+    <tableColumn id="9" xr3:uid="{FE296567-86D1-6A48-824C-B5033A571F9A}" name="Status Summary" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{23CAA704-FC4C-1542-A57E-88E3323E03B8}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{73EEE41B-97DD-4F4B-80AB-7C5C7C415BC9}" name="GH Issue" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3055,7 +3135,7 @@
     <col min="1" max="1" width="8.1640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="49.5" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="51.6640625" style="5" customWidth="1"/>
@@ -3063,13 +3143,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -3081,16 +3161,16 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -3102,34 +3182,35 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="8" t="s">
-        <v>780</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>14</v>
@@ -3142,21 +3223,22 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="8" t="s">
-        <v>778</v>
-      </c>
+        <v>774</v>
+      </c>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>14</v>
@@ -3169,19 +3251,20 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="8"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>14</v>
@@ -3194,19 +3277,20 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="8"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>15</v>
@@ -3219,7 +3303,7 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="8"/>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>207</v>
       </c>
     </row>
@@ -3228,13 +3312,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>14</v>
@@ -3247,19 +3331,20 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="8"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>14</v>
@@ -3272,19 +3357,20 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="8"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>14</v>
@@ -3297,7 +3383,7 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="8"/>
-      <c r="J9">
+      <c r="J9" s="10">
         <v>155</v>
       </c>
     </row>
@@ -3306,13 +3392,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>14</v>
@@ -3325,19 +3411,20 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="8"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>14</v>
@@ -3350,19 +3437,20 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="8"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>14</v>
@@ -3375,19 +3463,20 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="8"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>14</v>
@@ -3400,19 +3489,20 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="8"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>1.1000000000000001</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>14</v>
@@ -3425,19 +3515,20 @@
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="8"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>2.1</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>14</v>
@@ -3450,19 +3541,20 @@
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="8"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>2.1</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>229</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>14</v>
@@ -3475,6 +3567,7 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="8"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
@@ -3483,7 +3576,7 @@
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>14</v>
@@ -3496,6 +3589,7 @@
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="8"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
@@ -3504,7 +3598,7 @@
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>14</v>
@@ -3517,8 +3611,9 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="8" t="s">
-        <v>779</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -3531,7 +3626,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -3543,21 +3638,22 @@
         <v>15</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>783</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3.2</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>14</v>
@@ -3570,6 +3666,7 @@
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="8"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
@@ -3578,7 +3675,7 @@
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>14</v>
@@ -3591,6 +3688,7 @@
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="8"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -3601,33 +3699,34 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>781</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>3.4</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>14</v>
@@ -3640,6 +3739,7 @@
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="8"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
@@ -3648,7 +3748,7 @@
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>15</v>
@@ -3661,7 +3761,10 @@
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="8" t="s">
-        <v>782</v>
+        <v>778</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -3675,7 +3778,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -3687,21 +3790,22 @@
         <v>15</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>783</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>3.7</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>14</v>
@@ -3714,6 +3818,7 @@
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="8"/>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
@@ -3722,7 +3827,7 @@
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>14</v>
@@ -3735,6 +3840,7 @@
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="8"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -3747,7 +3853,7 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -3759,8 +3865,9 @@
         <v>15</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>783</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -3773,7 +3880,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -3784,6 +3891,7 @@
       <c r="G29" t="s">
         <v>15</v>
       </c>
+      <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
@@ -3794,47 +3902,49 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E30" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>781</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="8" t="s">
-        <v>784</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
@@ -3843,22 +3953,22 @@
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="J32">
+        <v>777</v>
+      </c>
+      <c r="J32" s="1">
         <v>226</v>
       </c>
     </row>
@@ -3871,7 +3981,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
@@ -3881,6 +3991,9 @@
       </c>
       <c r="G33" t="s">
         <v>14</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -3890,7 +4003,7 @@
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>14</v>
@@ -3903,8 +4016,9 @@
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="8" t="s">
-        <v>779</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
@@ -3913,7 +4027,7 @@
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>14</v>
@@ -3926,8 +4040,9 @@
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="8" t="s">
-        <v>779</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
@@ -3936,7 +4051,7 @@
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>14</v>
@@ -3949,8 +4064,9 @@
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="8" t="s">
-        <v>779</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
@@ -3959,7 +4075,7 @@
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>14</v>
@@ -3972,17 +4088,18 @@
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="8" t="s">
-        <v>779</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>14</v>
@@ -3995,21 +4112,22 @@
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="8" t="s">
-        <v>779</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>227</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>14</v>
@@ -4022,19 +4140,20 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="8"/>
+      <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>14</v>
@@ -4047,8 +4166,9 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="8" t="s">
-        <v>785</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
@@ -4057,7 +4177,7 @@
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>14</v>
@@ -4070,21 +4190,22 @@
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="8" t="s">
-        <v>785</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>14</v>
@@ -4097,19 +4218,20 @@
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="8"/>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>15</v>
@@ -4118,41 +4240,42 @@
         <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="8" t="s">
-        <v>786</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>793</v>
+        <v>784</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -4160,13 +4283,13 @@
         <v>91</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>14</v>
@@ -4179,35 +4302,37 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="8" t="s">
-        <v>785</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="8" t="s">
-        <v>789</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
@@ -4216,7 +4341,7 @@
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>14</v>
@@ -4229,6 +4354,7 @@
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="8"/>
+      <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
@@ -4237,7 +4363,7 @@
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>14</v>
@@ -4250,17 +4376,18 @@
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="8" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
       <c r="D49" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>15</v>
@@ -4273,32 +4400,34 @@
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
       <c r="D51" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>14</v>
@@ -4311,15 +4440,16 @@
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="8"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
       <c r="D52" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>14</v>
@@ -4332,19 +4462,20 @@
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="8"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>14</v>
@@ -4357,19 +4488,20 @@
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>226</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>15</v>
@@ -4382,44 +4514,48 @@
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>14</v>
@@ -4432,19 +4568,20 @@
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>178</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>14</v>
@@ -4457,19 +4594,20 @@
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="8"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>178</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>14</v>
@@ -4482,19 +4620,20 @@
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="8"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>14</v>
@@ -4507,19 +4646,20 @@
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>14</v>
@@ -4532,19 +4672,20 @@
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="8"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>228</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>14</v>
@@ -4557,19 +4698,20 @@
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>182</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>228</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>14</v>
@@ -4582,19 +4724,20 @@
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="8"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>228</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>14</v>
@@ -4607,19 +4750,20 @@
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="8"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>184</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>14</v>
@@ -4632,19 +4776,20 @@
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="8"/>
+      <c r="J64" s="1"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>14</v>
@@ -4657,19 +4802,20 @@
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="8"/>
+      <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>14</v>
@@ -4682,19 +4828,20 @@
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="8"/>
+      <c r="J66" s="1"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>187</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>14</v>
@@ -4707,19 +4854,20 @@
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="8"/>
+      <c r="J67" s="1"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>188</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>14</v>
@@ -4732,7 +4880,7 @@
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="8"/>
-      <c r="J68">
+      <c r="J68" s="10">
         <v>208</v>
       </c>
     </row>
@@ -4741,13 +4889,13 @@
         <v>189</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>228</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>14</v>
@@ -4760,19 +4908,20 @@
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="8"/>
+      <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>14</v>
@@ -4785,19 +4934,20 @@
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="8"/>
+      <c r="J70" s="1"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>14</v>
@@ -4810,44 +4960,46 @@
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="8"/>
+      <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>203</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="8"/>
+      <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>15</v>
@@ -4856,23 +5008,26 @@
         <v>15</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="8"/>
+      <c r="J73" s="1" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>14</v>
@@ -4885,15 +5040,16 @@
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="8"/>
+      <c r="J74" s="1"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>14</v>
@@ -4906,15 +5062,16 @@
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="8"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>15</v>
@@ -4923,19 +5080,24 @@
         <v>15</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>787</v>
+        <v>15</v>
       </c>
       <c r="H76" s="6"/>
-      <c r="I76" s="8"/>
+      <c r="I76" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>15</v>
@@ -4948,15 +5110,18 @@
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="8"/>
+      <c r="J77" s="1" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>14</v>
@@ -4969,15 +5134,16 @@
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="8"/>
+      <c r="J78" s="1"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>14</v>
@@ -4990,15 +5156,16 @@
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="8"/>
+      <c r="J79" s="1"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>15</v>
@@ -5007,19 +5174,22 @@
         <v>15</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="8"/>
+      <c r="J80" s="1" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>15</v>
@@ -5032,19 +5202,22 @@
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="8"/>
+      <c r="J81" s="1" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>15</v>
@@ -5053,19 +5226,22 @@
         <v>15</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="8"/>
+      <c r="J82" s="1" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>15</v>
@@ -5078,15 +5254,18 @@
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="8"/>
+      <c r="J83" s="1" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>14</v>
@@ -5099,15 +5278,16 @@
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="8"/>
+      <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>15</v>
@@ -5120,15 +5300,18 @@
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="8"/>
+      <c r="J85" s="1" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>15</v>
@@ -5137,19 +5320,22 @@
         <v>15</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="8"/>
+      <c r="J86" s="1" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>15</v>
@@ -5162,15 +5348,18 @@
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="8"/>
+      <c r="J87" s="1" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>14</v>
@@ -5183,15 +5372,16 @@
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="8"/>
+      <c r="J88" s="1"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>15</v>
@@ -5204,15 +5394,18 @@
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="8"/>
+      <c r="J89" s="1" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>15</v>
@@ -5225,15 +5418,18 @@
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="8"/>
+      <c r="J90" s="1" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>15</v>
@@ -5246,19 +5442,22 @@
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="8"/>
+      <c r="J91" s="1" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>15</v>
@@ -5271,22 +5470,22 @@
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="8"/>
-      <c r="J92">
-        <v>209</v>
+      <c r="J92" s="1" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>15</v>
@@ -5299,22 +5498,22 @@
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="8"/>
-      <c r="J93">
-        <v>209</v>
+      <c r="J93" s="1" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>15</v>
@@ -5327,22 +5526,22 @@
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="8"/>
-      <c r="J94">
-        <v>209</v>
+      <c r="J94" s="1" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>15</v>
@@ -5355,8 +5554,8 @@
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="8"/>
-      <c r="J95">
-        <v>209</v>
+      <c r="J95" s="1" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -5380,8 +5579,9 @@
         <v>15</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>749</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="J96" s="1"/>
     </row>
     <row r="97" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
@@ -5400,14 +5600,15 @@
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G97" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>803</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="J97" s="1"/>
     </row>
     <row r="98" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
@@ -5426,15 +5627,15 @@
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G98" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="J98">
+        <v>799</v>
+      </c>
+      <c r="J98" s="10">
         <v>190</v>
       </c>
     </row>
@@ -5455,14 +5656,15 @@
         <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G99" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>804</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="J99" s="1"/>
     </row>
     <row r="100" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -5475,20 +5677,21 @@
         <v>86</v>
       </c>
       <c r="D100" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G100" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>806</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="J100" s="1"/>
     </row>
     <row r="101" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -5507,14 +5710,15 @@
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G101" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>804</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="J101" s="1"/>
     </row>
     <row r="102" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
@@ -5527,20 +5731,21 @@
         <v>88</v>
       </c>
       <c r="D102" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G102" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>804</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="J102" s="1"/>
     </row>
     <row r="103" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
@@ -5553,20 +5758,21 @@
         <v>89</v>
       </c>
       <c r="D103" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E103" t="s">
         <v>14</v>
       </c>
       <c r="F103" t="s">
+        <v>746</v>
+      </c>
+      <c r="G103" t="s">
+        <v>746</v>
+      </c>
+      <c r="I103" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="G103" t="s">
-        <v>748</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>750</v>
-      </c>
+      <c r="J103" s="1"/>
     </row>
     <row r="104" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
@@ -5583,14 +5789,15 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G104" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>751</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="J104" s="1"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
@@ -5614,10 +5821,11 @@
       <c r="G105" t="s">
         <v>15</v>
       </c>
+      <c r="J105" s="1"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B106" t="s">
         <v>4</v>
@@ -5637,13 +5845,13 @@
       <c r="G106" t="s">
         <v>15</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="1">
         <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B107" t="s">
         <v>4</v>
@@ -5663,10 +5871,11 @@
       <c r="G107" t="s">
         <v>15</v>
       </c>
+      <c r="J107" s="1"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
@@ -5686,10 +5895,11 @@
       <c r="G108" t="s">
         <v>15</v>
       </c>
+      <c r="J108" s="1"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B109" t="s">
         <v>4</v>
@@ -5709,13 +5919,14 @@
       <c r="G109" t="s">
         <v>15</v>
       </c>
+      <c r="J109" s="1"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D110" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
@@ -5726,10 +5937,11 @@
       <c r="G110" t="s">
         <v>15</v>
       </c>
+      <c r="J110" s="1"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B111" t="s">
         <v>4</v>
@@ -5749,10 +5961,11 @@
       <c r="G111" t="s">
         <v>15</v>
       </c>
+      <c r="J111" s="1"/>
     </row>
     <row r="112" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
@@ -5773,12 +5986,13 @@
         <v>15</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>752</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="J112" s="1"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
@@ -5798,10 +6012,11 @@
       <c r="G113" t="s">
         <v>15</v>
       </c>
+      <c r="J113" s="1"/>
     </row>
     <row r="114" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
@@ -5822,21 +6037,22 @@
         <v>15</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>752</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="J114" s="1"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>14</v>
@@ -5849,19 +6065,20 @@
       </c>
       <c r="H115" s="6"/>
       <c r="I115" s="8"/>
+      <c r="J115" s="1"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C116" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>499</v>
-      </c>
       <c r="D116" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>14</v>
@@ -5874,10 +6091,11 @@
       </c>
       <c r="H116" s="6"/>
       <c r="I116" s="8"/>
+      <c r="J116" s="1"/>
     </row>
     <row r="117" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
@@ -5892,18 +6110,19 @@
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G117" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>799</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="J117" s="1"/>
     </row>
     <row r="118" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
@@ -5918,21 +6137,21 @@
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G118" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="J118">
+        <v>794</v>
+      </c>
+      <c r="J118" s="10">
         <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
@@ -5947,18 +6166,19 @@
         <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G119" t="s">
         <v>15</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>756</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="J119" s="1"/>
     </row>
     <row r="120" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
@@ -5973,21 +6193,21 @@
         <v>14</v>
       </c>
       <c r="F120" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G120" t="s">
         <v>15</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="J120">
+        <v>794</v>
+      </c>
+      <c r="J120" s="10">
         <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
@@ -6002,18 +6222,19 @@
         <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G121" t="s">
         <v>15</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>753</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="J121" s="1"/>
     </row>
     <row r="122" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
@@ -6028,18 +6249,19 @@
         <v>14</v>
       </c>
       <c r="F122" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G122" t="s">
         <v>15</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>756</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="J122" s="1"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
@@ -6059,13 +6281,13 @@
       <c r="G123" t="s">
         <v>15</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="1">
         <v>159</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
@@ -6080,21 +6302,21 @@
         <v>14</v>
       </c>
       <c r="F124" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G124" t="s">
         <v>15</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="J124">
+        <v>754</v>
+      </c>
+      <c r="J124" s="10">
         <v>184</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B125" t="s">
         <v>4</v>
@@ -6114,13 +6336,13 @@
       <c r="G125" t="s">
         <v>15</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="1">
         <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
@@ -6135,21 +6357,21 @@
         <v>14</v>
       </c>
       <c r="F126" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G126" t="s">
         <v>15</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="J126">
+        <v>795</v>
+      </c>
+      <c r="J126" s="10">
         <v>184</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B127" t="s">
         <v>4</v>
@@ -6158,27 +6380,27 @@
         <v>101</v>
       </c>
       <c r="D127" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
       </c>
       <c r="F127" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G127" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="J127">
+        <v>801</v>
+      </c>
+      <c r="J127" s="10">
         <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B128" t="s">
         <v>4</v>
@@ -6187,27 +6409,27 @@
         <v>102</v>
       </c>
       <c r="D128" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G128" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="J128">
+        <v>801</v>
+      </c>
+      <c r="J128" s="10">
         <v>185</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B129" t="s">
         <v>4</v>
@@ -6222,21 +6444,21 @@
         <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G129" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="J129">
+        <v>802</v>
+      </c>
+      <c r="J129" s="10">
         <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B130" t="s">
         <v>4</v>
@@ -6251,21 +6473,21 @@
         <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G130" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="J130" s="5" t="s">
-        <v>798</v>
+        <v>802</v>
+      </c>
+      <c r="J130" s="12" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B131" t="s">
         <v>4</v>
@@ -6280,18 +6502,19 @@
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G131" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>809</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="J131" s="1"/>
     </row>
     <row r="132" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B132" t="s">
         <v>4</v>
@@ -6303,24 +6526,24 @@
         <v>256</v>
       </c>
       <c r="E132" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F132" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G132" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="J132" s="5" t="s">
-        <v>796</v>
+        <v>804</v>
+      </c>
+      <c r="J132" s="11" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B133" t="s">
         <v>4</v>
@@ -6332,24 +6555,24 @@
         <v>254</v>
       </c>
       <c r="E133" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F133" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G133" t="s">
         <v>15</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="J133">
+        <v>814</v>
+      </c>
+      <c r="J133" s="10">
         <v>160</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B134" t="s">
         <v>4</v>
@@ -6361,24 +6584,24 @@
         <v>255</v>
       </c>
       <c r="E134" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F134" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G134" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="J134">
+        <v>805</v>
+      </c>
+      <c r="J134" s="1">
         <v>204</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B135" t="s">
         <v>4</v>
@@ -6393,18 +6616,19 @@
         <v>14</v>
       </c>
       <c r="F135" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G135" t="s">
         <v>15</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>758</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="J135" s="1"/>
     </row>
     <row r="136" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
@@ -6419,21 +6643,21 @@
         <v>14</v>
       </c>
       <c r="F136" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G136" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="J136">
+        <v>794</v>
+      </c>
+      <c r="J136" s="10">
         <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B137" t="s">
         <v>4</v>
@@ -6445,24 +6669,24 @@
         <v>259</v>
       </c>
       <c r="E137" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F137" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G137" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="J137">
+        <v>805</v>
+      </c>
+      <c r="J137" s="1">
         <v>204</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B138" t="s">
         <v>4</v>
@@ -6477,21 +6701,21 @@
         <v>14</v>
       </c>
       <c r="F138" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G138" t="s">
         <v>15</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="J138">
+        <v>754</v>
+      </c>
+      <c r="J138" s="10">
         <v>188</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B139" t="s">
         <v>4</v>
@@ -6506,21 +6730,21 @@
         <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G139" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="J139">
+        <v>802</v>
+      </c>
+      <c r="J139" s="10">
         <v>189</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
@@ -6540,10 +6764,11 @@
       <c r="G140" t="s">
         <v>15</v>
       </c>
+      <c r="J140" s="1"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B141" t="s">
         <v>4</v>
@@ -6563,13 +6788,13 @@
       <c r="G141" t="s">
         <v>15</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="10">
         <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B142" t="s">
         <v>4</v>
@@ -6589,10 +6814,11 @@
       <c r="G142" t="s">
         <v>15</v>
       </c>
+      <c r="J142" s="1"/>
     </row>
     <row r="143" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B143" t="s">
         <v>4</v>
@@ -6601,7 +6827,7 @@
         <v>83</v>
       </c>
       <c r="D143" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E143" t="s">
         <v>14</v>
@@ -6613,12 +6839,13 @@
         <v>15</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>759</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="J143" s="1"/>
     </row>
     <row r="144" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B144" t="s">
         <v>4</v>
@@ -6627,7 +6854,7 @@
         <v>84</v>
       </c>
       <c r="D144" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -6639,12 +6866,13 @@
         <v>15</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>759</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="J144" s="1"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B145" t="s">
         <v>4</v>
@@ -6664,10 +6892,11 @@
       <c r="G145" t="s">
         <v>15</v>
       </c>
+      <c r="J145" s="1"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B146" t="s">
         <v>4</v>
@@ -6687,10 +6916,11 @@
       <c r="G146" t="s">
         <v>15</v>
       </c>
+      <c r="J146" s="1"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B147" t="s">
         <v>4</v>
@@ -6710,10 +6940,11 @@
       <c r="G147" t="s">
         <v>15</v>
       </c>
+      <c r="J147" s="1"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B148" t="s">
         <v>4</v>
@@ -6733,10 +6964,11 @@
       <c r="G148" t="s">
         <v>15</v>
       </c>
+      <c r="J148" s="1"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B149" t="s">
         <v>4</v>
@@ -6756,13 +6988,13 @@
       <c r="G149" t="s">
         <v>15</v>
       </c>
-      <c r="J149">
+      <c r="J149" s="10">
         <v>197</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B150" t="s">
         <v>4</v>
@@ -6771,7 +7003,7 @@
         <v>89</v>
       </c>
       <c r="D150" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E150" t="s">
         <v>14</v>
@@ -6783,12 +7015,13 @@
         <v>15</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>750</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="J150" s="1"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B151" t="s">
         <v>4</v>
@@ -6808,10 +7041,11 @@
       <c r="G151" t="s">
         <v>15</v>
       </c>
+      <c r="J151" s="1"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B152" t="s">
         <v>4</v>
@@ -6831,13 +7065,13 @@
       <c r="G152" t="s">
         <v>15</v>
       </c>
-      <c r="J152">
+      <c r="J152" s="10">
         <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B153" t="s">
         <v>4</v>
@@ -6857,13 +7091,13 @@
       <c r="G153" t="s">
         <v>15</v>
       </c>
-      <c r="J153">
+      <c r="J153" s="10">
         <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B154" t="s">
         <v>4</v>
@@ -6883,10 +7117,11 @@
       <c r="G154" t="s">
         <v>15</v>
       </c>
+      <c r="J154" s="1"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B155" t="s">
         <v>4</v>
@@ -6906,10 +7141,11 @@
       <c r="G155" t="s">
         <v>15</v>
       </c>
+      <c r="J155" s="1"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B156" t="s">
         <v>4</v>
@@ -6929,10 +7165,11 @@
       <c r="G156" t="s">
         <v>15</v>
       </c>
+      <c r="J156" s="1"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
@@ -6952,10 +7189,11 @@
       <c r="G157" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="J157" s="1"/>
+    </row>
+    <row r="158" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B158" t="s">
         <v>4</v>
@@ -6967,24 +7205,24 @@
         <v>277</v>
       </c>
       <c r="E158" t="s">
-        <v>794</v>
+        <v>14</v>
       </c>
       <c r="F158" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G158" t="s">
         <v>15</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="J158">
+        <v>760</v>
+      </c>
+      <c r="J158" s="10">
         <v>191</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B159" t="s">
         <v>4</v>
@@ -6999,18 +7237,19 @@
         <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G159" t="s">
         <v>15</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="J159" s="1"/>
     </row>
     <row r="160" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B160" t="s">
         <v>4</v>
@@ -7025,18 +7264,19 @@
         <v>14</v>
       </c>
       <c r="F160" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G160" t="s">
         <v>15</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="J160" s="1"/>
     </row>
     <row r="161" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B161" t="s">
         <v>4</v>
@@ -7045,24 +7285,25 @@
         <v>83</v>
       </c>
       <c r="D161" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E161" t="s">
         <v>14</v>
       </c>
       <c r="F161" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G161" t="s">
         <v>15</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>761</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="J161" s="1"/>
     </row>
     <row r="162" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B162" t="s">
         <v>4</v>
@@ -7071,24 +7312,25 @@
         <v>84</v>
       </c>
       <c r="D162" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E162" t="s">
         <v>14</v>
       </c>
       <c r="F162" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G162" t="s">
         <v>15</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>761</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="J162" s="1"/>
     </row>
     <row r="163" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B163" t="s">
         <v>4</v>
@@ -7109,12 +7351,13 @@
         <v>15</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>762</v>
-      </c>
+        <v>759</v>
+      </c>
+      <c r="J163" s="1"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B164" t="s">
         <v>4</v>
@@ -7123,7 +7366,7 @@
         <v>134</v>
       </c>
       <c r="D164" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E164" t="s">
         <v>14</v>
@@ -7134,10 +7377,11 @@
       <c r="G164" t="s">
         <v>15</v>
       </c>
+      <c r="J164" s="1"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B165" t="s">
         <v>4</v>
@@ -7157,10 +7401,11 @@
       <c r="G165" t="s">
         <v>15</v>
       </c>
+      <c r="J165" s="1"/>
     </row>
     <row r="166" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B166" t="s">
         <v>4</v>
@@ -7169,24 +7414,25 @@
         <v>134</v>
       </c>
       <c r="D166" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E166" t="s">
         <v>14</v>
       </c>
       <c r="F166" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G166" t="s">
         <v>15</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="J166" s="1"/>
     </row>
     <row r="167" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B167" t="s">
         <v>4</v>
@@ -7195,24 +7441,25 @@
         <v>135</v>
       </c>
       <c r="D167" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E167" t="s">
         <v>14</v>
       </c>
       <c r="F167" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G167" t="s">
         <v>15</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="J167" s="1"/>
     </row>
     <row r="168" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B168" t="s">
         <v>4</v>
@@ -7221,27 +7468,27 @@
         <v>136</v>
       </c>
       <c r="D168" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E168" t="s">
         <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G168" t="s">
         <v>15</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="J168" s="5" t="s">
-        <v>797</v>
+        <v>760</v>
+      </c>
+      <c r="J168" s="12" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B169" t="s">
         <v>4</v>
@@ -7250,24 +7497,25 @@
         <v>89</v>
       </c>
       <c r="D169" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E169" t="s">
         <v>14</v>
       </c>
       <c r="F169" t="s">
+        <v>746</v>
+      </c>
+      <c r="G169" t="s">
+        <v>15</v>
+      </c>
+      <c r="I169" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="G169" t="s">
-        <v>15</v>
-      </c>
-      <c r="I169" s="5" t="s">
-        <v>750</v>
-      </c>
+      <c r="J169" s="1"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B170" t="s">
         <v>4</v>
@@ -7287,6 +7535,7 @@
       <c r="G170" t="s">
         <v>15</v>
       </c>
+      <c r="J170" s="1"/>
     </row>
     <row r="171" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
@@ -7303,14 +7552,15 @@
         <v>14</v>
       </c>
       <c r="F171" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G171" t="s">
         <v>15</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>764</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="J171" s="1"/>
     </row>
     <row r="172" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
@@ -7327,18 +7577,19 @@
         <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G172" t="s">
         <v>15</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>765</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="J172" s="1"/>
     </row>
     <row r="173" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B173" t="s">
         <v>4</v>
@@ -7347,24 +7598,25 @@
         <v>140</v>
       </c>
       <c r="D173" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E173" t="s">
         <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G173" t="s">
         <v>15</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="J173" s="1"/>
     </row>
     <row r="174" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B174" t="s">
         <v>4</v>
@@ -7373,24 +7625,25 @@
         <v>142</v>
       </c>
       <c r="D174" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E174" t="s">
         <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G174" t="s">
         <v>15</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="J174" s="1"/>
     </row>
     <row r="175" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B175" t="s">
         <v>4</v>
@@ -7399,24 +7652,25 @@
         <v>141</v>
       </c>
       <c r="D175" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E175" t="s">
         <v>14</v>
       </c>
       <c r="F175" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G175" t="s">
         <v>15</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>760</v>
+      </c>
+      <c r="J175" s="1"/>
+    </row>
+    <row r="176" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B176" t="s">
         <v>4</v>
@@ -7428,10 +7682,10 @@
         <v>285</v>
       </c>
       <c r="E176" t="s">
-        <v>794</v>
+        <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G176" t="s">
         <v>15</v>
@@ -7439,13 +7693,13 @@
       <c r="I176" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="J176">
+      <c r="J176" s="10">
         <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B177" t="s">
         <v>4</v>
@@ -7465,13 +7719,13 @@
       <c r="G177" t="s">
         <v>15</v>
       </c>
-      <c r="J177">
+      <c r="J177" s="10">
         <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B178" t="s">
         <v>4</v>
@@ -7480,7 +7734,7 @@
         <v>134</v>
       </c>
       <c r="D178" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E178" t="s">
         <v>14</v>
@@ -7491,10 +7745,11 @@
       <c r="G178" t="s">
         <v>15</v>
       </c>
+      <c r="J178" s="1"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B179" t="s">
         <v>4</v>
@@ -7503,7 +7758,7 @@
         <v>134</v>
       </c>
       <c r="D179" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
@@ -7514,10 +7769,11 @@
       <c r="G179" t="s">
         <v>15</v>
       </c>
+      <c r="J179" s="1"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B180" t="s">
         <v>4</v>
@@ -7537,10 +7793,11 @@
       <c r="G180" t="s">
         <v>15</v>
       </c>
+      <c r="J180" s="1"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B181" t="s">
         <v>4</v>
@@ -7560,13 +7817,14 @@
       <c r="G181" t="s">
         <v>15</v>
       </c>
+      <c r="J181" s="1"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D182" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E182" t="s">
         <v>14</v>
@@ -7577,10 +7835,11 @@
       <c r="G182" t="s">
         <v>15</v>
       </c>
+      <c r="J182" s="1"/>
     </row>
     <row r="183" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B183" t="s">
         <v>4</v>
@@ -7595,18 +7854,19 @@
         <v>14</v>
       </c>
       <c r="F183" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G183" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="J183" s="1"/>
     </row>
     <row r="184" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B184" t="s">
         <v>4</v>
@@ -7621,18 +7881,19 @@
         <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G184" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="J184" s="1"/>
     </row>
     <row r="185" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B185" t="s">
         <v>4</v>
@@ -7647,18 +7908,19 @@
         <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G185" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>812</v>
-      </c>
+        <v>806</v>
+      </c>
+      <c r="J185" s="1"/>
     </row>
     <row r="186" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B186" t="s">
         <v>4</v>
@@ -7673,21 +7935,21 @@
         <v>14</v>
       </c>
       <c r="F186" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G186" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="J186">
+        <v>760</v>
+      </c>
+      <c r="J186" s="10">
         <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B187" t="s">
         <v>4</v>
@@ -7702,18 +7964,19 @@
         <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G187" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="J187" s="1"/>
     </row>
     <row r="188" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B188" t="s">
         <v>4</v>
@@ -7728,18 +7991,19 @@
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G188" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="J188" s="1"/>
     </row>
     <row r="189" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B189" t="s">
         <v>4</v>
@@ -7754,18 +8018,19 @@
         <v>14</v>
       </c>
       <c r="F189" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G189" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>813</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="J189" s="1"/>
     </row>
     <row r="190" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B190" t="s">
         <v>4</v>
@@ -7780,18 +8045,19 @@
         <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G190" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>814</v>
-      </c>
+        <v>808</v>
+      </c>
+      <c r="J190" s="1"/>
     </row>
     <row r="191" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B191" t="s">
         <v>4</v>
@@ -7806,18 +8072,19 @@
         <v>14</v>
       </c>
       <c r="F191" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G191" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>815</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="J191" s="1"/>
     </row>
     <row r="192" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B192" t="s">
         <v>4</v>
@@ -7832,21 +8099,21 @@
         <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G192" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>819</v>
-      </c>
-      <c r="J192">
+        <v>813</v>
+      </c>
+      <c r="J192" s="10">
         <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B193" t="s">
         <v>4</v>
@@ -7861,18 +8128,19 @@
         <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G193" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="J193" s="1"/>
     </row>
     <row r="194" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B194" t="s">
         <v>4</v>
@@ -7887,18 +8155,19 @@
         <v>14</v>
       </c>
       <c r="F194" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G194" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="J194" s="1"/>
     </row>
     <row r="195" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B195" t="s">
         <v>4</v>
@@ -7907,24 +8176,25 @@
         <v>159</v>
       </c>
       <c r="D195" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E195" t="s">
         <v>14</v>
       </c>
       <c r="F195" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G195" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="J195" s="1"/>
     </row>
     <row r="196" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B196" t="s">
         <v>4</v>
@@ -7939,18 +8209,19 @@
         <v>14</v>
       </c>
       <c r="F196" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G196" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>815</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="J196" s="1"/>
     </row>
     <row r="197" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B197" t="s">
         <v>4</v>
@@ -7965,58 +8236,61 @@
         <v>14</v>
       </c>
       <c r="F197" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G197" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>815</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="J197" s="1"/>
     </row>
     <row r="198" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D198" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E198" t="s">
         <v>14</v>
       </c>
       <c r="F198" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G198" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>815</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="J198" s="1"/>
     </row>
     <row r="199" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D199" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
       </c>
       <c r="F199" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G199" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>815</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="J199" s="1"/>
     </row>
     <row r="200" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B200" t="s">
         <v>4</v>
@@ -8031,14 +8305,15 @@
         <v>14</v>
       </c>
       <c r="F200" t="s">
+        <v>746</v>
+      </c>
+      <c r="G200" t="s">
+        <v>746</v>
+      </c>
+      <c r="I200" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="G200" t="s">
-        <v>748</v>
-      </c>
-      <c r="I200" s="5" t="s">
-        <v>750</v>
-      </c>
+      <c r="J200" s="1"/>
     </row>
     <row r="201" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
@@ -8055,14 +8330,15 @@
         <v>14</v>
       </c>
       <c r="F201" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G201" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>751</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="J201" s="1"/>
     </row>
     <row r="202" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
@@ -8079,14 +8355,15 @@
         <v>14</v>
       </c>
       <c r="F202" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G202" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>764</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="J202" s="1"/>
     </row>
     <row r="203" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
@@ -8103,18 +8380,19 @@
         <v>14</v>
       </c>
       <c r="F203" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G203" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>765</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="J203" s="1"/>
     </row>
     <row r="204" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B204" t="s">
         <v>4</v>
@@ -8129,60 +8407,63 @@
         <v>14</v>
       </c>
       <c r="F204" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G204" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>816</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="J204" s="1"/>
     </row>
     <row r="205" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D205" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E205" t="s">
         <v>14</v>
       </c>
       <c r="F205" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G205" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>816</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="J205" s="1"/>
     </row>
     <row r="206" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D206" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E206" t="s">
         <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G206" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>816</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="J206" s="1"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B207" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B207" t="s">
         <v>4</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -8198,24 +8479,24 @@
         <v>15</v>
       </c>
       <c r="G207" t="s">
-        <v>748</v>
-      </c>
-      <c r="J207">
+        <v>746</v>
+      </c>
+      <c r="J207" s="1">
         <v>163</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B208" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="B208" t="s">
         <v>4</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D208" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E208" t="s">
         <v>15</v>
@@ -8224,21 +8505,24 @@
         <v>15</v>
       </c>
       <c r="G208" t="s">
-        <v>748</v>
+        <v>746</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B209" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="B209" t="s">
         <v>4</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D209" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E209" t="s">
         <v>15</v>
@@ -8247,12 +8531,15 @@
         <v>15</v>
       </c>
       <c r="G209" t="s">
-        <v>748</v>
+        <v>746</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B210" t="s">
         <v>4</v>
@@ -8261,27 +8548,27 @@
         <v>168</v>
       </c>
       <c r="D210" t="s">
-        <v>309</v>
+        <v>828</v>
       </c>
       <c r="E210" t="s">
         <v>14</v>
       </c>
       <c r="F210" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G210" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="J210">
+        <v>760</v>
+      </c>
+      <c r="J210" s="10">
         <v>196</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B211" t="s">
         <v>4</v>
@@ -8290,21 +8577,21 @@
         <v>169</v>
       </c>
       <c r="D211" t="s">
-        <v>310</v>
+        <v>829</v>
       </c>
       <c r="E211" t="s">
         <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G211" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="J211">
+        <v>760</v>
+      </c>
+      <c r="J211" s="10">
         <v>196</v>
       </c>
     </row>
@@ -8317,20 +8604,21 @@
         <v>170</v>
       </c>
       <c r="D212" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E212" t="s">
         <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G212" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>815</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="J212" s="1"/>
     </row>
     <row r="213" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
@@ -8341,20 +8629,21 @@
         <v>171</v>
       </c>
       <c r="D213" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E213" t="s">
         <v>14</v>
       </c>
       <c r="F213" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G213" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>815</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="J213" s="1"/>
     </row>
     <row r="214" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
@@ -8365,24 +8654,25 @@
         <v>172</v>
       </c>
       <c r="D214" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
       </c>
       <c r="F214" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G214" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>815</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="J214" s="1"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B215" t="s">
         <v>4</v>
@@ -8391,7 +8681,7 @@
         <v>173</v>
       </c>
       <c r="D215" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E215" t="s">
         <v>14</v>
@@ -8400,12 +8690,13 @@
         <v>14</v>
       </c>
       <c r="G215" t="s">
-        <v>748</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="J215" s="1"/>
     </row>
     <row r="216" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B216" t="s">
         <v>4</v>
@@ -8414,24 +8705,25 @@
         <v>174</v>
       </c>
       <c r="D216" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E216" t="s">
         <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G216" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="J216" s="1"/>
     </row>
     <row r="217" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B217" t="s">
         <v>4</v>
@@ -8440,24 +8732,25 @@
         <v>175</v>
       </c>
       <c r="D217" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E217" t="s">
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G217" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>763</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="J217" s="1"/>
     </row>
     <row r="218" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B218" t="s">
         <v>4</v>
@@ -8466,24 +8759,25 @@
         <v>176</v>
       </c>
       <c r="D218" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E218" t="s">
         <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G218" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>815</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="J218" s="1"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B219" t="s">
         <v>4</v>
@@ -8492,7 +8786,7 @@
         <v>177</v>
       </c>
       <c r="D219" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E219" t="s">
         <v>14</v>
@@ -8501,15 +8795,16 @@
         <v>14</v>
       </c>
       <c r="G219" t="s">
-        <v>748</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="J219" s="1"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D220" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E220" t="s">
         <v>14</v>
@@ -8520,10 +8815,11 @@
       <c r="G220" t="s">
         <v>15</v>
       </c>
+      <c r="J220" s="1"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B221" t="s">
         <v>4</v>
@@ -8532,7 +8828,7 @@
         <v>178</v>
       </c>
       <c r="D221" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
@@ -8543,30 +8839,34 @@
       <c r="G221" t="s">
         <v>15</v>
       </c>
-      <c r="J221">
+      <c r="J221" s="10">
         <v>164</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D222" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E222" t="s">
-        <v>15</v>
+        <v>818</v>
       </c>
       <c r="F222" t="s">
-        <v>15</v>
+        <v>818</v>
       </c>
       <c r="G222" t="s">
         <v>15</v>
       </c>
+      <c r="I222" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="J222" s="1"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B223" t="s">
         <v>4</v>
@@ -8575,7 +8875,7 @@
         <v>179</v>
       </c>
       <c r="D223" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E223" t="s">
         <v>14</v>
@@ -8586,13 +8886,13 @@
       <c r="G223" t="s">
         <v>15</v>
       </c>
-      <c r="J223">
+      <c r="J223" s="10">
         <v>165</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B224" t="s">
         <v>4</v>
@@ -8601,7 +8901,7 @@
         <v>180</v>
       </c>
       <c r="D224" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E224" t="s">
         <v>14</v>
@@ -8612,10 +8912,11 @@
       <c r="G224" t="s">
         <v>15</v>
       </c>
+      <c r="J224" s="1"/>
     </row>
     <row r="225" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B225" t="s">
         <v>4</v>
@@ -8624,24 +8925,25 @@
         <v>181</v>
       </c>
       <c r="D225" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E225" t="s">
         <v>14</v>
       </c>
       <c r="F225" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G225" t="s">
         <v>15</v>
       </c>
       <c r="I225" s="5" t="s">
-        <v>766</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="J225" s="1"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B226" t="s">
         <v>4</v>
@@ -8650,7 +8952,7 @@
         <v>182</v>
       </c>
       <c r="D226" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E226" t="s">
         <v>14</v>
@@ -8661,13 +8963,13 @@
       <c r="G226" t="s">
         <v>15</v>
       </c>
-      <c r="J226">
+      <c r="J226" s="10">
         <v>166</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B227" t="s">
         <v>4</v>
@@ -8676,7 +8978,7 @@
         <v>183</v>
       </c>
       <c r="D227" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E227" t="s">
         <v>14</v>
@@ -8687,27 +8989,32 @@
       <c r="G227" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J227" s="1"/>
+    </row>
+    <row r="228" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D228" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E228" t="s">
-        <v>15</v>
+        <v>818</v>
       </c>
       <c r="F228" t="s">
-        <v>15</v>
+        <v>818</v>
       </c>
       <c r="G228" t="s">
         <v>15</v>
       </c>
+      <c r="I228" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="J228" s="1"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B229" t="s">
         <v>4</v>
@@ -8716,7 +9023,7 @@
         <v>185</v>
       </c>
       <c r="D229" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E229" t="s">
         <v>14</v>
@@ -8727,10 +9034,11 @@
       <c r="G229" t="s">
         <v>15</v>
       </c>
+      <c r="J229" s="1"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B230" t="s">
         <v>4</v>
@@ -8739,7 +9047,7 @@
         <v>184</v>
       </c>
       <c r="D230" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E230" t="s">
         <v>14</v>
@@ -8750,27 +9058,32 @@
       <c r="G230" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J230" s="1"/>
+    </row>
+    <row r="231" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D231" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E231" t="s">
-        <v>15</v>
+        <v>818</v>
       </c>
       <c r="F231" t="s">
-        <v>15</v>
+        <v>818</v>
       </c>
       <c r="G231" t="s">
         <v>15</v>
       </c>
+      <c r="I231" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="J231" s="1"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B232" t="s">
         <v>4</v>
@@ -8779,7 +9092,7 @@
         <v>186</v>
       </c>
       <c r="D232" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E232" t="s">
         <v>14</v>
@@ -8788,15 +9101,15 @@
         <v>14</v>
       </c>
       <c r="G232" t="s">
-        <v>748</v>
-      </c>
-      <c r="J232">
+        <v>746</v>
+      </c>
+      <c r="J232" s="10">
         <v>164</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B233" t="s">
         <v>4</v>
@@ -8805,7 +9118,7 @@
         <v>187</v>
       </c>
       <c r="D233" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E233" t="s">
         <v>14</v>
@@ -8814,12 +9127,13 @@
         <v>14</v>
       </c>
       <c r="G233" t="s">
-        <v>748</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="J233" s="1"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B234" t="s">
         <v>4</v>
@@ -8828,7 +9142,7 @@
         <v>188</v>
       </c>
       <c r="D234" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E234" t="s">
         <v>14</v>
@@ -8837,8 +9151,9 @@
         <v>14</v>
       </c>
       <c r="G234" t="s">
-        <v>748</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="J234" s="1"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
@@ -8849,7 +9164,7 @@
         <v>189</v>
       </c>
       <c r="D235" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
@@ -8860,10 +9175,11 @@
       <c r="G235" t="s">
         <v>15</v>
       </c>
+      <c r="J235" s="1"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B236" t="s">
         <v>4</v>
@@ -8872,7 +9188,7 @@
         <v>190</v>
       </c>
       <c r="D236" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E236" t="s">
         <v>14</v>
@@ -8883,10 +9199,11 @@
       <c r="G236" t="s">
         <v>15</v>
       </c>
+      <c r="J236" s="1"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B237" t="s">
         <v>4</v>
@@ -8895,7 +9212,7 @@
         <v>191</v>
       </c>
       <c r="D237" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E237" t="s">
         <v>14</v>
@@ -8906,13 +9223,13 @@
       <c r="G237" t="s">
         <v>15</v>
       </c>
-      <c r="J237">
+      <c r="J237" s="10">
         <v>167</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B238" t="s">
         <v>4</v>
@@ -8921,7 +9238,7 @@
         <v>192</v>
       </c>
       <c r="D238" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E238" t="s">
         <v>14</v>
@@ -8932,6 +9249,7 @@
       <c r="G238" t="s">
         <v>15</v>
       </c>
+      <c r="J238" s="1"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
@@ -8942,7 +9260,7 @@
         <v>193</v>
       </c>
       <c r="D239" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E239" t="s">
         <v>14</v>
@@ -8953,13 +9271,13 @@
       <c r="G239" t="s">
         <v>15</v>
       </c>
-      <c r="J239">
+      <c r="J239" s="10">
         <v>168</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B240" t="s">
         <v>4</v>
@@ -8968,7 +9286,7 @@
         <v>194</v>
       </c>
       <c r="D240" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E240" t="s">
         <v>14</v>
@@ -8979,9 +9297,10 @@
       <c r="G240" t="s">
         <v>15</v>
       </c>
-      <c r="I240" s="10" t="s">
-        <v>750</v>
-      </c>
+      <c r="I240" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="J240" s="1"/>
     </row>
     <row r="241" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
@@ -8992,7 +9311,7 @@
         <v>195</v>
       </c>
       <c r="D241" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E241" t="s">
         <v>14</v>
@@ -9003,16 +9322,17 @@
       <c r="G241" t="s">
         <v>15</v>
       </c>
-      <c r="I241" s="10" t="s">
-        <v>767</v>
-      </c>
+      <c r="I241" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="J241" s="1"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D242" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E242" t="s">
         <v>15</v>
@@ -9022,14 +9342,17 @@
       </c>
       <c r="G242" t="s">
         <v>15</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D243" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E243" t="s">
         <v>15</v>
@@ -9039,11 +9362,14 @@
       </c>
       <c r="G243" t="s">
         <v>15</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B244" t="s">
         <v>4</v>
@@ -9052,7 +9378,7 @@
         <v>196</v>
       </c>
       <c r="D244" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E244" t="s">
         <v>14</v>
@@ -9063,10 +9389,11 @@
       <c r="G244" t="s">
         <v>15</v>
       </c>
+      <c r="J244" s="1"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B245" t="s">
         <v>4</v>
@@ -9075,7 +9402,7 @@
         <v>197</v>
       </c>
       <c r="D245" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E245" t="s">
         <v>14</v>
@@ -9086,27 +9413,32 @@
       <c r="G245" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J245" s="1"/>
+    </row>
+    <row r="246" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D246" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E246" t="s">
-        <v>15</v>
+        <v>818</v>
       </c>
       <c r="F246" t="s">
-        <v>15</v>
+        <v>818</v>
       </c>
       <c r="G246" t="s">
         <v>15</v>
       </c>
+      <c r="I246" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="J246" s="1"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B247" t="s">
         <v>4</v>
@@ -9115,7 +9447,7 @@
         <v>198</v>
       </c>
       <c r="D247" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E247" t="s">
         <v>14</v>
@@ -9126,6 +9458,7 @@
       <c r="G247" t="s">
         <v>15</v>
       </c>
+      <c r="J247" s="1"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
@@ -9136,7 +9469,7 @@
         <v>199</v>
       </c>
       <c r="D248" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E248" t="s">
         <v>14</v>
@@ -9147,16 +9480,16 @@
       <c r="G248" t="s">
         <v>15</v>
       </c>
-      <c r="J248">
+      <c r="J248" s="10">
         <v>169</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D249" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E249" t="s">
         <v>14</v>
@@ -9167,13 +9500,14 @@
       <c r="G249" t="s">
         <v>15</v>
       </c>
+      <c r="J249" s="1"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D250" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E250" t="s">
         <v>15</v>
@@ -9184,6 +9518,7 @@
       <c r="G250" t="s">
         <v>15</v>
       </c>
+      <c r="J250" s="1"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
@@ -9194,7 +9529,7 @@
         <v>200</v>
       </c>
       <c r="D251" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E251" t="s">
         <v>14</v>
@@ -9205,7 +9540,7 @@
       <c r="G251" t="s">
         <v>15</v>
       </c>
-      <c r="J251">
+      <c r="J251" s="10">
         <v>170</v>
       </c>
     </row>
@@ -9218,7 +9553,7 @@
         <v>201</v>
       </c>
       <c r="D252" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E252" t="s">
         <v>14</v>
@@ -9229,30 +9564,34 @@
       <c r="G252" t="s">
         <v>15</v>
       </c>
-      <c r="J252">
+      <c r="J252" s="10">
         <v>171</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D253" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E253" t="s">
-        <v>15</v>
+        <v>818</v>
       </c>
       <c r="F253" t="s">
-        <v>15</v>
+        <v>818</v>
       </c>
       <c r="G253" t="s">
         <v>15</v>
       </c>
+      <c r="I253" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="J253" s="1"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B254" t="s">
         <v>4</v>
@@ -9261,7 +9600,7 @@
         <v>202</v>
       </c>
       <c r="D254" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E254" t="s">
         <v>14</v>
@@ -9272,10 +9611,11 @@
       <c r="G254" t="s">
         <v>15</v>
       </c>
+      <c r="J254" s="1"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B255" t="s">
         <v>4</v>
@@ -9284,7 +9624,7 @@
         <v>203</v>
       </c>
       <c r="D255" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E255" t="s">
         <v>14</v>
@@ -9295,13 +9635,13 @@
       <c r="G255" t="s">
         <v>15</v>
       </c>
-      <c r="J255">
+      <c r="J255" s="10">
         <v>172</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B256" t="s">
         <v>4</v>
@@ -9310,7 +9650,7 @@
         <v>204</v>
       </c>
       <c r="D256" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
@@ -9321,10 +9661,11 @@
       <c r="G256" t="s">
         <v>15</v>
       </c>
+      <c r="J256" s="1"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B257" t="s">
         <v>4</v>
@@ -9333,7 +9674,7 @@
         <v>205</v>
       </c>
       <c r="D257" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E257" t="s">
         <v>14</v>
@@ -9344,10 +9685,11 @@
       <c r="G257" t="s">
         <v>15</v>
       </c>
+      <c r="J257" s="1"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B258" t="s">
         <v>4</v>
@@ -9356,7 +9698,7 @@
         <v>206</v>
       </c>
       <c r="D258" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E258" t="s">
         <v>14</v>
@@ -9367,13 +9709,13 @@
       <c r="G258" t="s">
         <v>15</v>
       </c>
-      <c r="J258">
+      <c r="J258" s="10">
         <v>173</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B259" t="s">
         <v>4</v>
@@ -9382,7 +9724,7 @@
         <v>207</v>
       </c>
       <c r="D259" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E259" t="s">
         <v>14</v>
@@ -9394,12 +9736,13 @@
         <v>15</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>768</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="J259" s="1"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B260" t="s">
         <v>4</v>
@@ -9408,7 +9751,7 @@
         <v>214</v>
       </c>
       <c r="D260" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E260" t="s">
         <v>14</v>
@@ -9417,12 +9760,13 @@
         <v>14</v>
       </c>
       <c r="G260" t="s">
-        <v>748</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="J260" s="1"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B261" t="s">
         <v>4</v>
@@ -9431,7 +9775,7 @@
         <v>208</v>
       </c>
       <c r="D261" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E261" t="s">
         <v>14</v>
@@ -9440,15 +9784,15 @@
         <v>14</v>
       </c>
       <c r="G261" t="s">
-        <v>748</v>
-      </c>
-      <c r="J261">
+        <v>746</v>
+      </c>
+      <c r="J261" s="10">
         <v>181</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B262" t="s">
         <v>4</v>
@@ -9457,24 +9801,25 @@
         <v>210</v>
       </c>
       <c r="D262" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E262" t="s">
         <v>14</v>
       </c>
       <c r="F262" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G262" t="s">
         <v>15</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>769</v>
-      </c>
+        <v>766</v>
+      </c>
+      <c r="J262" s="1"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B263" t="s">
         <v>4</v>
@@ -9483,7 +9828,7 @@
         <v>209</v>
       </c>
       <c r="D263" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
@@ -9492,15 +9837,15 @@
         <v>14</v>
       </c>
       <c r="G263" t="s">
-        <v>748</v>
-      </c>
-      <c r="J263">
+        <v>746</v>
+      </c>
+      <c r="J263" s="10">
         <v>181</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B264" t="s">
         <v>4</v>
@@ -9509,7 +9854,7 @@
         <v>211</v>
       </c>
       <c r="D264" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E264" t="s">
         <v>14</v>
@@ -9518,12 +9863,13 @@
         <v>14</v>
       </c>
       <c r="G264" t="s">
-        <v>748</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="J264" s="1"/>
     </row>
     <row r="265" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B265" t="s">
         <v>4</v>
@@ -9532,27 +9878,27 @@
         <v>213</v>
       </c>
       <c r="D265" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E265" t="s">
         <v>14</v>
       </c>
       <c r="F265" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G265" t="s">
         <v>15</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="J265">
+        <v>796</v>
+      </c>
+      <c r="J265" s="10">
         <v>49</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B266" t="s">
         <v>4</v>
@@ -9561,27 +9907,27 @@
         <v>212</v>
       </c>
       <c r="D266" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E266" t="s">
         <v>14</v>
       </c>
       <c r="F266" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G266" t="s">
         <v>15</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="J266">
+        <v>796</v>
+      </c>
+      <c r="J266" s="10">
         <v>182</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B267" t="s">
         <v>4</v>
@@ -9590,7 +9936,7 @@
         <v>216</v>
       </c>
       <c r="D267" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E267" t="s">
         <v>14</v>
@@ -9599,12 +9945,13 @@
         <v>14</v>
       </c>
       <c r="G267" t="s">
-        <v>748</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="J267" s="1"/>
     </row>
     <row r="268" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B268" t="s">
         <v>4</v>
@@ -9613,27 +9960,27 @@
         <v>215</v>
       </c>
       <c r="D268" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E268" t="s">
         <v>14</v>
       </c>
       <c r="F268" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G268" t="s">
         <v>15</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="J268">
+        <v>796</v>
+      </c>
+      <c r="J268" s="10">
         <v>182</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B269" t="s">
         <v>4</v>
@@ -9642,27 +9989,27 @@
         <v>217</v>
       </c>
       <c r="D269" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E269" t="s">
         <v>14</v>
       </c>
       <c r="F269" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G269" t="s">
         <v>15</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="J269">
+        <v>796</v>
+      </c>
+      <c r="J269" s="10">
         <v>49</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B270" t="s">
         <v>4</v>
@@ -9683,18 +10030,18 @@
         <v>15</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="J270">
+        <v>767</v>
+      </c>
+      <c r="J270" s="10">
         <v>174</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D271" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E271" t="s">
         <v>15</v>
@@ -9705,10 +10052,11 @@
       <c r="G271" t="s">
         <v>15</v>
       </c>
+      <c r="J271" s="1"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B272" t="s">
         <v>4</v>
@@ -9728,10 +10076,11 @@
       <c r="G272" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J272" s="1"/>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B273" t="s">
         <v>4</v>
@@ -9751,10 +10100,13 @@
       <c r="G273" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J273" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B274" t="s">
         <v>4</v>
@@ -9769,18 +10121,19 @@
         <v>14</v>
       </c>
       <c r="F274" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G274" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+      <c r="J274" s="1"/>
+    </row>
+    <row r="275" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B275" t="s">
         <v>4</v>
@@ -9795,18 +10148,19 @@
         <v>14</v>
       </c>
       <c r="F275" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G275" t="s">
         <v>15</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+        <v>754</v>
+      </c>
+      <c r="J275" s="1"/>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B276" t="s">
         <v>4</v>
@@ -9826,10 +10180,11 @@
       <c r="G276" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J276" s="1"/>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B277" t="s">
         <v>4</v>
@@ -9849,10 +10204,11 @@
       <c r="G277" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J277" s="1"/>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B278" t="s">
         <v>4</v>
@@ -9872,10 +10228,11 @@
       <c r="G278" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J278" s="1"/>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B279" t="s">
         <v>4</v>
@@ -9895,10 +10252,11 @@
       <c r="G279" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J279" s="1"/>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B280" t="s">
         <v>4</v>
@@ -9918,10 +10276,13 @@
       <c r="G280" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J280" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B281" t="s">
         <v>4</v>
@@ -9941,10 +10302,11 @@
       <c r="G281" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J281" s="1"/>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B282" t="s">
         <v>4</v>
@@ -9964,13 +10326,14 @@
       <c r="G282" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J282" s="1"/>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D283" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E283" t="s">
         <v>14</v>
@@ -9981,10 +10344,11 @@
       <c r="G283" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J283" s="1"/>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B284" t="s">
         <v>4</v>
@@ -10004,10 +10368,11 @@
       <c r="G284" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J284" s="1"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B285" t="s">
         <v>4</v>
@@ -10027,10 +10392,11 @@
       <c r="G285" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J285" s="1"/>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B286" t="s">
         <v>4</v>
@@ -10050,10 +10416,13 @@
       <c r="G286" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="J286" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B287" t="s">
         <v>4</v>
@@ -10074,12 +10443,13 @@
         <v>15</v>
       </c>
       <c r="I287" s="5" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+      <c r="J287" s="1"/>
+    </row>
+    <row r="288" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B288" t="s">
         <v>4</v>
@@ -10094,21 +10464,22 @@
         <v>14</v>
       </c>
       <c r="F288" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G288" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I288" s="5" t="s">
-        <v>818</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="J288" s="1"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D289" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E289" t="s">
         <v>15</v>
@@ -10119,10 +10490,11 @@
       <c r="G289" t="s">
         <v>15</v>
       </c>
+      <c r="J289" s="1"/>
     </row>
     <row r="290" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B290" t="s">
         <v>4</v>
@@ -10137,18 +10509,19 @@
         <v>14</v>
       </c>
       <c r="F290" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G290" t="s">
         <v>15</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>771</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="J290" s="1"/>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B291" t="s">
         <v>4</v>
@@ -10168,10 +10541,11 @@
       <c r="G291" t="s">
         <v>15</v>
       </c>
+      <c r="J291" s="1"/>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B292" t="s">
         <v>4</v>
@@ -10191,10 +10565,11 @@
       <c r="G292" t="s">
         <v>15</v>
       </c>
+      <c r="J292" s="1"/>
     </row>
     <row r="293" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B293" t="s">
         <v>4</v>
@@ -10206,21 +10581,22 @@
         <v>72</v>
       </c>
       <c r="E293" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F293" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G293" t="s">
         <v>15</v>
       </c>
       <c r="I293" s="5" t="s">
-        <v>772</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="J293" s="1"/>
     </row>
     <row r="294" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B294" t="s">
         <v>4</v>
@@ -10232,24 +10608,25 @@
         <v>74</v>
       </c>
       <c r="E294" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F294" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G294" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>772</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="J294" s="1"/>
     </row>
     <row r="295" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D295" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E295" t="s">
         <v>14</v>
@@ -10261,12 +10638,13 @@
         <v>15</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>773</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="J295" s="1"/>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B296" t="s">
         <v>4</v>
@@ -10286,10 +10664,13 @@
       <c r="G296" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="J296" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B297" t="s">
         <v>4</v>
@@ -10301,27 +10682,24 @@
         <v>75</v>
       </c>
       <c r="E297" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="F297" t="s">
-        <v>748</v>
+        <v>14</v>
       </c>
       <c r="G297" t="s">
         <v>15</v>
       </c>
-      <c r="I297" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="J297">
+      <c r="J297" s="10">
         <v>175</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D298" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E298" t="s">
         <v>14</v>
@@ -10332,10 +10710,11 @@
       <c r="G298" t="s">
         <v>15</v>
       </c>
+      <c r="J298" s="1"/>
     </row>
     <row r="299" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B299" t="s">
         <v>4</v>
@@ -10353,15 +10732,15 @@
         <v>15</v>
       </c>
       <c r="G299" t="s">
-        <v>748</v>
-      </c>
-      <c r="J299" s="5" t="s">
-        <v>795</v>
+        <v>746</v>
+      </c>
+      <c r="J299" s="12" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B300" t="s">
         <v>4</v>
@@ -10381,13 +10760,14 @@
       <c r="G300" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J300" s="1"/>
+    </row>
+    <row r="301" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D301" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E301" t="s">
         <v>15</v>
@@ -10397,14 +10777,20 @@
       </c>
       <c r="G301" t="s">
         <v>15</v>
+      </c>
+      <c r="I301" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D302" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E302" t="s">
         <v>14</v>
@@ -10415,6 +10801,7 @@
       <c r="G302" t="s">
         <v>15</v>
       </c>
+      <c r="J302" s="1"/>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
@@ -10425,7 +10812,7 @@
         <v>218</v>
       </c>
       <c r="D303" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E303" t="s">
         <v>14</v>
@@ -10436,6 +10823,7 @@
       <c r="G303" t="s">
         <v>15</v>
       </c>
+      <c r="J303" s="1"/>
     </row>
     <row r="304" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
@@ -10446,24 +10834,25 @@
         <v>219</v>
       </c>
       <c r="D304" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E304" t="s">
         <v>14</v>
       </c>
       <c r="F304" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G304" t="s">
         <v>15</v>
       </c>
       <c r="I304" s="5" t="s">
-        <v>775</v>
-      </c>
+        <v>771</v>
+      </c>
+      <c r="J304" s="1"/>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B305" t="s">
         <v>4</v>
@@ -10472,7 +10861,7 @@
         <v>220</v>
       </c>
       <c r="D305" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E305" t="s">
         <v>14</v>
@@ -10483,10 +10872,11 @@
       <c r="G305" t="s">
         <v>15</v>
       </c>
+      <c r="J305" s="1"/>
     </row>
     <row r="306" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B306" t="s">
         <v>4</v>
@@ -10495,24 +10885,25 @@
         <v>221</v>
       </c>
       <c r="D306" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E306" t="s">
         <v>14</v>
       </c>
       <c r="F306" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G306" t="s">
         <v>15</v>
       </c>
       <c r="I306" s="5" t="s">
-        <v>775</v>
-      </c>
+        <v>771</v>
+      </c>
+      <c r="J306" s="1"/>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B307" t="s">
         <v>4</v>
@@ -10521,7 +10912,7 @@
         <v>222</v>
       </c>
       <c r="D307" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E307" t="s">
         <v>14</v>
@@ -10532,10 +10923,11 @@
       <c r="G307" t="s">
         <v>15</v>
       </c>
+      <c r="J307" s="1"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B308" t="s">
         <v>4</v>
@@ -10544,7 +10936,7 @@
         <v>223</v>
       </c>
       <c r="D308" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E308" t="s">
         <v>14</v>
@@ -10555,10 +10947,11 @@
       <c r="G308" t="s">
         <v>15</v>
       </c>
+      <c r="J308" s="1"/>
     </row>
     <row r="309" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B309" t="s">
         <v>4</v>
@@ -10567,7 +10960,7 @@
         <v>224</v>
       </c>
       <c r="D309" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E309" t="s">
         <v>15</v>
@@ -10579,12 +10972,15 @@
         <v>15</v>
       </c>
       <c r="I309" s="5" t="s">
-        <v>776</v>
+        <v>772</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="310" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B310" t="s">
         <v>4</v>
@@ -10593,29 +10989,30 @@
         <v>225</v>
       </c>
       <c r="D310" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E310" t="s">
         <v>14</v>
       </c>
       <c r="F310" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G310" t="s">
         <v>15</v>
       </c>
       <c r="I310" s="5" t="s">
-        <v>777</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="J310" s="1"/>
     </row>
     <row r="311" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B311" s="6"/>
       <c r="C311" s="7"/>
       <c r="D311" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E311" s="6" t="s">
         <v>14</v>
@@ -10627,18 +11024,19 @@
         <v>15</v>
       </c>
       <c r="H311" s="6"/>
-      <c r="I311" s="10" t="s">
-        <v>750</v>
-      </c>
+      <c r="I311" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="J311" s="1"/>
     </row>
     <row r="312" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B312" s="6"/>
       <c r="C312" s="7"/>
       <c r="D312" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E312" s="6" t="s">
         <v>15</v>
@@ -10651,17 +11049,20 @@
       </c>
       <c r="H312" s="6"/>
       <c r="I312" s="8" t="s">
-        <v>776</v>
+        <v>772</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="313" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B313" s="6"/>
       <c r="C313" s="7"/>
       <c r="D313" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E313" s="6" t="s">
         <v>15</v>
@@ -10674,12 +11075,15 @@
       </c>
       <c r="H313" s="6"/>
       <c r="I313" s="8" t="s">
-        <v>776</v>
+        <v>772</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B314" t="s">
         <v>4</v>
@@ -10688,7 +11092,7 @@
         <v>226</v>
       </c>
       <c r="D314" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E314" t="s">
         <v>14</v>
@@ -10699,20 +11103,20 @@
       <c r="G314" t="s">
         <v>15</v>
       </c>
-      <c r="J314">
+      <c r="J314" s="1">
         <v>176</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="7"/>
       <c r="B315" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E315" s="6" t="s">
         <v>14</v>
@@ -10725,15 +11129,16 @@
       </c>
       <c r="H315" s="6"/>
       <c r="I315" s="8"/>
+      <c r="J315" s="1"/>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="7"/>
       <c r="B316" s="6"/>
       <c r="C316" s="7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E316" s="6" t="s">
         <v>14</v>
@@ -10746,15 +11151,16 @@
       </c>
       <c r="H316" s="6"/>
       <c r="I316" s="8"/>
+      <c r="J316" s="1"/>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="7"/>
       <c r="B317" s="6"/>
       <c r="C317" s="7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E317" s="6" t="s">
         <v>14</v>
@@ -10767,7 +11173,7 @@
       </c>
       <c r="H317" s="6"/>
       <c r="I317" s="8"/>
-      <c r="J317">
+      <c r="J317" s="10">
         <v>177</v>
       </c>
     </row>
@@ -10775,10 +11181,10 @@
       <c r="A318" s="7"/>
       <c r="B318" s="6"/>
       <c r="C318" s="7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E318" s="6" t="s">
         <v>14</v>
@@ -10791,21 +11197,22 @@
       </c>
       <c r="H318" s="6"/>
       <c r="I318" s="8"/>
+      <c r="J318" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>OR($E1="incorrect",AND($E1="no",$G1="no"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>OR(AND($E1="partial",$G1="no"),AND($E1="no",$G1="partial"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND($E1="partial",$G1="partial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>"AND($E1=""yes"",OR($F1=""no"",$F1=""partial""))"</formula>
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>AND($E1="no", $G1="yes")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CQL_Execution_Features.xlsx
+++ b/CQL_Execution_Features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmoesel/dev/cqframework/cql-execution/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hossenlopp/code/abacus-repos/cql-execution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA126A1D-FE83-9D49-8AA0-224FA0B37764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3433B4-C2F5-E94A-B68D-D5664CC88ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56200" yWindow="1660" windowWidth="51200" windowHeight="26600" xr2:uid="{BD7176B9-F4D7-4641-8174-C94C0FC4637E}"/>
+    <workbookView xWindow="5920" yWindow="8680" windowWidth="34560" windowHeight="21580" xr2:uid="{BD7176B9-F4D7-4641-8174-C94C0FC4637E}"/>
   </bookViews>
   <sheets>
     <sheet name="CQL 1.5" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="836">
   <si>
     <t>Capability</t>
   </si>
@@ -2577,6 +2577,9 @@
   </si>
   <si>
     <t>294</t>
+  </si>
+  <si>
+    <t>158, 319</t>
   </si>
 </sst>
 </file>
@@ -2671,7 +2674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2697,11 +2700,40 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5F60"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -2762,34 +2794,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5F60"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2809,28 +2813,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CFE3D192-473A-F64F-9B16-BDD036BAEF9D}" name="Table1" displayName="Table1" ref="A1:J318" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CFE3D192-473A-F64F-9B16-BDD036BAEF9D}" name="Table1" displayName="Table1" ref="A1:J318" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:J318" xr:uid="{840FAC20-C910-0D4A-BC54-C8C26EB6B00E}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{97C419BE-8AC9-CE46-BE00-F59ED57834C8}" name="Logical" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{97C419BE-8AC9-CE46-BE00-F59ED57834C8}" name="Logical" dataDxfId="8"/>
     <tableColumn id="8" xr3:uid="{C88805A8-828E-6947-9F49-22481CDE564E}" name="Alt Page"/>
-    <tableColumn id="2" xr3:uid="{3C29D91D-3571-4E43-B6B8-0E58CA9D05E6}" name="Alt" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{3C29D91D-3571-4E43-B6B8-0E58CA9D05E6}" name="Alt" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{77229700-2285-904F-B0CF-1C772D2DC797}" name="Capability"/>
     <tableColumn id="4" xr3:uid="{7259AA01-C65A-6D46-9E88-06C6BCEA2CD9}" name="Supported"/>
     <tableColumn id="5" xr3:uid="{84A190A3-FFAC-564D-8811-7377E5E613F1}" name="Tested"/>
     <tableColumn id="6" xr3:uid="{38CEE918-219A-4349-B3E9-41A70AF85329}" name="STU"/>
-    <tableColumn id="9" xr3:uid="{FE296567-86D1-6A48-824C-B5033A571F9A}" name="Status Summary" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{23CAA704-FC4C-1542-A57E-88E3323E03B8}" name="Notes" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{73EEE41B-97DD-4F4B-80AB-7C5C7C415BC9}" name="GH Issue" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{FE296567-86D1-6A48-824C-B5033A571F9A}" name="Status Summary" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{23CAA704-FC4C-1542-A57E-88E3323E03B8}" name="Notes" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{73EEE41B-97DD-4F4B-80AB-7C5C7C415BC9}" name="GH Issue" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2868,7 +2872,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2974,7 +2978,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3116,7 +3120,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3126,8 +3130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25183728-5293-364E-82DC-3D3D8A1E2D49}">
   <dimension ref="A1:J318"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5837,16 +5841,16 @@
         <v>22</v>
       </c>
       <c r="E106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G106" t="s">
         <v>15</v>
       </c>
-      <c r="J106" s="1">
-        <v>158</v>
+      <c r="J106" s="13" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -11202,17 +11206,17 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="expression" dxfId="9" priority="4">
-      <formula>OR($E1="incorrect",AND($E1="no",$G1="no"))</formula>
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND($E1="no", $G1="yes")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>AND($E1="partial",$G1="partial")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>OR(AND($E1="partial",$G1="no"),AND($E1="no",$G1="partial"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>AND($E1="partial",$G1="partial")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>AND($E1="no", $G1="yes")</formula>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>OR($E1="incorrect",AND($E1="no",$G1="no"))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
